--- a/Data/Test SWV/DPV Analysis/Analysis Files/Apt1.xlsx
+++ b/Data/Test SWV/DPV Analysis/Analysis Files/Apt1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Peak Info; File 0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Signal Data; File 0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Signal Data; File 0" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Peak Info; File 0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -480,10 +480,10 @@
         <v>-0.004</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.07754476190476198</v>
+        <v>-0.07754476190476184</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-0.07754476190476198</v>
+        <v>-0.07754476190476184</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
@@ -493,7 +493,7 @@
         <v>-0.272</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-0.9769083994709002</v>
+        <v>-0.9769083994708996</v>
       </c>
     </row>
     <row r="3">
@@ -501,10 +501,10 @@
         <v>-0.008</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.07820833333333339</v>
+        <v>-0.07820833333333332</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-0.07820833333333339</v>
+        <v>-0.07820833333333332</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0</v>
@@ -518,10 +518,10 @@
         <v>-0.012</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-0.0783933333333334</v>
+        <v>-0.07839333333333336</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-0.0783933333333334</v>
+        <v>-0.07839333333333336</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -535,10 +535,10 @@
         <v>-0.016</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-0.07829809523809531</v>
+        <v>-0.07829809523809525</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-0.07829809523809531</v>
+        <v>-0.07829809523809525</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0</v>
@@ -552,10 +552,10 @@
         <v>-0.02</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-0.07818190476190481</v>
+        <v>-0.07818190476190479</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-0.07818190476190481</v>
+        <v>-0.07818190476190479</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -569,10 +569,10 @@
         <v>-0.024</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-0.07814809523809529</v>
+        <v>-0.07814809523809524</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-0.07814809523809529</v>
+        <v>-0.07814809523809524</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>-0.028</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-0.07823476190476196</v>
+        <v>-0.07823476190476192</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-0.07823476190476196</v>
+        <v>-0.07823476190476192</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>0</v>
@@ -603,10 +603,10 @@
         <v>-0.032</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-0.07826190476190482</v>
+        <v>-0.07826190476190478</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-0.07826190476190482</v>
+        <v>-0.07826190476190478</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>-0.036</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-0.07821333333333338</v>
+        <v>-0.07821333333333334</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-0.07821333333333338</v>
+        <v>-0.07821333333333334</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>0</v>
@@ -637,10 +637,10 @@
         <v>-0.04</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-0.07822523809523815</v>
+        <v>-0.0782252380952381</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-0.07822523809523815</v>
+        <v>-0.0782252380952381</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>0</v>
@@ -654,10 +654,10 @@
         <v>-0.044</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-0.07823666666666673</v>
+        <v>-0.07823666666666668</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-0.07823666666666673</v>
+        <v>-0.07823666666666668</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>-0.048</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-0.07833809523809529</v>
+        <v>-0.07833809523809525</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-0.07833809523809529</v>
+        <v>-0.07833809523809525</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>0</v>
@@ -688,10 +688,10 @@
         <v>-0.052</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-0.07847904761904767</v>
+        <v>-0.07847904761904763</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-0.07847904761904767</v>
+        <v>-0.07847904761904763</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>-0.056</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-0.07862190476190481</v>
+        <v>-0.07862190476190478</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-0.07862190476190481</v>
+        <v>-0.07862190476190478</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>-0.06</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-0.07871666666666671</v>
+        <v>-0.07871666666666666</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-0.07871666666666671</v>
+        <v>-0.07871666666666666</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>-0.064</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-0.07882380952380957</v>
+        <v>-0.07882380952380952</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-0.07882380952380957</v>
+        <v>-0.07882380952380952</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>0</v>
@@ -756,10 +756,10 @@
         <v>-0.068</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-0.07901380952380957</v>
+        <v>-0.07901380952380953</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-0.07901380952380957</v>
+        <v>-0.07901380952380953</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>0</v>
@@ -773,10 +773,10 @@
         <v>-0.07199999999999999</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-0.0792128571428572</v>
+        <v>-0.07921285714285715</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-0.0792128571428572</v>
+        <v>-0.07921285714285715</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>0</v>
@@ -790,10 +790,10 @@
         <v>-0.076</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-0.07939714285714292</v>
+        <v>-0.07939714285714286</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-0.07939714285714292</v>
+        <v>-0.07939714285714286</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>0</v>
@@ -807,10 +807,10 @@
         <v>-0.08</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-0.07955619047619053</v>
+        <v>-0.07955619047619047</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-0.07955619047619053</v>
+        <v>-0.07955619047619047</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>-0.08400000000000001</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-0.07969190476190482</v>
+        <v>-0.07969190476190477</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-0.07969190476190482</v>
+        <v>-0.07969190476190477</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>0</v>
@@ -841,10 +841,10 @@
         <v>-0.08799999999999999</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-0.07987047619047624</v>
+        <v>-0.07987047619047619</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-0.07987047619047624</v>
+        <v>-0.07987047619047619</v>
       </c>
       <c r="D23" s="2" t="n">
         <v>0</v>
@@ -858,10 +858,10 @@
         <v>-0.092</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-0.08006857142857149</v>
+        <v>-0.08006857142857143</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-0.08006857142857149</v>
+        <v>-0.08006857142857143</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>0</v>
@@ -875,10 +875,10 @@
         <v>-0.096</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-0.08018904761904767</v>
+        <v>-0.08018904761904763</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-0.08018904761904767</v>
+        <v>-0.08018904761904763</v>
       </c>
       <c r="D25" s="2" t="n">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>-0.1</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-0.08039761904761911</v>
+        <v>-0.08039761904761905</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-0.08039761904761911</v>
+        <v>-0.08039761904761905</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>0</v>
@@ -909,10 +909,10 @@
         <v>-0.104</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-0.08063000000000006</v>
+        <v>-0.08063000000000001</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-0.08063000000000006</v>
+        <v>-0.08063000000000001</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>0</v>
@@ -926,10 +926,10 @@
         <v>-0.108</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-0.08096095238095244</v>
+        <v>-0.08096095238095238</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-0.08096095238095244</v>
+        <v>-0.08096095238095238</v>
       </c>
       <c r="D28" s="2" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>-0.112</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-0.08124714285714291</v>
+        <v>-0.08124714285714286</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-0.08124714285714291</v>
+        <v>-0.08124714285714286</v>
       </c>
       <c r="D29" s="2" t="n">
         <v>0</v>
@@ -960,10 +960,10 @@
         <v>-0.116</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-0.08160095238095244</v>
+        <v>-0.08160095238095239</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-0.08160095238095244</v>
+        <v>-0.08160095238095239</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>0</v>
@@ -977,10 +977,10 @@
         <v>-0.12</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-0.08194523809523815</v>
+        <v>-0.0819452380952381</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-0.08194523809523813</v>
+        <v>-0.08194523809523807</v>
       </c>
       <c r="D31" s="2" t="n">
         <v>-2.775557561562891e-17</v>
@@ -994,13 +994,13 @@
         <v>-0.124</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-0.08247666666666673</v>
+        <v>-0.08247666666666667</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-0.08241901455026457</v>
+        <v>-0.08241901455026453</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-5.765211640215706e-05</v>
+        <v>-5.765211640214318e-05</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1011,10 +1011,10 @@
         <v>-0.128</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-0.08305666666666672</v>
+        <v>-0.08305666666666667</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-0.08289279100529104</v>
+        <v>-0.08289279100529098</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>-0.0001638756613756842</v>
@@ -1028,10 +1028,10 @@
         <v>-0.132</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-0.08372666666666673</v>
+        <v>-0.08372666666666667</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-0.08336656746031748</v>
+        <v>-0.08336656746031743</v>
       </c>
       <c r="D34" s="2" t="n">
         <v>-0.0003600992063492459</v>
@@ -1045,13 +1045,13 @@
         <v>-0.136</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-0.08450190476190482</v>
+        <v>-0.08450190476190476</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-0.08384034391534394</v>
+        <v>-0.0838403439153439</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.0006615608465608824</v>
+        <v>-0.0006615608465608686</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1062,13 +1062,13 @@
         <v>-0.14</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-0.08557857142857149</v>
+        <v>-0.08557857142857145</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-0.08431412037037039</v>
+        <v>-0.08431412037037034</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-0.001264451058201096</v>
+        <v>-0.00126445105820111</v>
       </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
@@ -1079,10 +1079,10 @@
         <v>-0.144</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-0.08683666666666673</v>
+        <v>-0.08683666666666667</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-0.08478789682539685</v>
+        <v>-0.08478789682539679</v>
       </c>
       <c r="D37" s="2" t="n">
         <v>-0.002048769841269879</v>
@@ -1096,13 +1096,13 @@
         <v>-0.148</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-0.08843904761904767</v>
+        <v>-0.08843904761904764</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-0.08526167328042331</v>
+        <v>-0.08526167328042325</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-0.003177374338624361</v>
+        <v>-0.003177374338624389</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1113,13 +1113,13 @@
         <v>-0.152</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-0.09034571428571435</v>
+        <v>-0.09034571428571431</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-0.08573544973544976</v>
+        <v>-0.08573544973544971</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-0.004610264550264587</v>
+        <v>-0.004610264550264601</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1130,13 +1130,13 @@
         <v>-0.156</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-0.0926576190476191</v>
+        <v>-0.09265761904761906</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-0.08620922619047622</v>
+        <v>-0.08620922619047616</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-0.006448392857142882</v>
+        <v>-0.006448392857142896</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1147,10 +1147,10 @@
         <v>-0.16</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-0.09567904761904769</v>
+        <v>-0.09567904761904764</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-0.08668300264550267</v>
+        <v>-0.08668300264550262</v>
       </c>
       <c r="D41" s="2" t="n">
         <v>-0.008996044973545017</v>
@@ -1164,10 +1164,10 @@
         <v>-0.164</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>-0.09925142857142863</v>
+        <v>-0.09925142857142857</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-0.08715677910052913</v>
+        <v>-0.08715677910052907</v>
       </c>
       <c r="D42" s="2" t="n">
         <v>-0.0120946494708995</v>
@@ -1181,10 +1181,10 @@
         <v>-0.168</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>-0.1038885714285715</v>
+        <v>-0.1038885714285714</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-0.08763055555555559</v>
+        <v>-0.08763055555555553</v>
       </c>
       <c r="D43" s="2" t="n">
         <v>-0.01625801587301591</v>
@@ -1198,13 +1198,13 @@
         <v>-0.172</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-0.1095838095238096</v>
+        <v>-0.1095838095238095</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-0.08810433201058204</v>
+        <v>-0.08810433201058199</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>-0.02147947751322755</v>
+        <v>-0.02147947751322754</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1215,13 +1215,13 @@
         <v>-0.176</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-0.1167333333333334</v>
+        <v>-0.1167333333333333</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-0.08857810846560848</v>
+        <v>-0.08857810846560843</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>-0.02815522486772493</v>
+        <v>-0.02815522486772491</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1232,10 +1232,10 @@
         <v>-0.18</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-0.1254809523809525</v>
+        <v>-0.1254809523809524</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-0.08905188492063494</v>
+        <v>-0.08905188492063489</v>
       </c>
       <c r="D46" s="2" t="n">
         <v>-0.03642906746031753</v>
@@ -1249,13 +1249,13 @@
         <v>-0.184</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-0.1364380952380953</v>
+        <v>-0.1364380952380952</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-0.0895256613756614</v>
+        <v>-0.08952566137566134</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>-0.04691243386243393</v>
+        <v>-0.04691243386243391</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1266,13 +1266,13 @@
         <v>-0.188</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-0.1499238095238096</v>
+        <v>-0.1499238095238095</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-0.08999943783068785</v>
+        <v>-0.0899994378306878</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>-0.05992437169312177</v>
+        <v>-0.05992437169312174</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1283,13 +1283,13 @@
         <v>-0.192</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-0.1667380952380954</v>
+        <v>-0.1667380952380952</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-0.09047321428571431</v>
+        <v>-0.09047321428571425</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>-0.07626488095238104</v>
+        <v>-0.07626488095238099</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1300,13 +1300,13 @@
         <v>-0.196</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-0.1870952380952382</v>
+        <v>-0.1870952380952381</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-0.09094699074074077</v>
+        <v>-0.09094699074074071</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-0.09614824735449744</v>
+        <v>-0.09614824735449741</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1317,13 +1317,13 @@
         <v>-0.2</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-0.2116047619047621</v>
+        <v>-0.211604761904762</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-0.09142076719576722</v>
+        <v>-0.09142076719576717</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>-0.1201839947089949</v>
+        <v>-0.1201839947089948</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1334,13 +1334,13 @@
         <v>-0.204</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>-0.2407000000000002</v>
+        <v>-0.2407</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-0.09189454365079368</v>
+        <v>-0.09189454365079361</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>-0.1488054563492065</v>
+        <v>-0.1488054563492064</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1351,13 +1351,13 @@
         <v>-0.208</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>-0.2750142857142859</v>
+        <v>-0.2750142857142858</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-0.09236832010582013</v>
+        <v>-0.09236832010582008</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-0.1826459656084658</v>
+        <v>-0.1826459656084657</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1368,13 +1368,13 @@
         <v>-0.212</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>-0.3149761904761906</v>
+        <v>-0.3149761904761905</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-0.09284209656084659</v>
+        <v>-0.09284209656084652</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-0.2221340939153441</v>
+        <v>-0.222134093915344</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1385,10 +1385,10 @@
         <v>-0.216</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-0.3607761904761907</v>
+        <v>-0.3607761904761905</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-0.09331587301587305</v>
+        <v>-0.09331587301587298</v>
       </c>
       <c r="D55" s="2" t="n">
         <v>-0.2674603174603176</v>
@@ -1402,13 +1402,13 @@
         <v>-0.22</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>-0.412366666666667</v>
+        <v>-0.4123666666666668</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-0.09378964947089949</v>
+        <v>-0.09378964947089943</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>-0.3185770171957675</v>
+        <v>-0.3185770171957674</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1419,13 +1419,13 @@
         <v>-0.224</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>-0.4693285714285718</v>
+        <v>-0.4693285714285715</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-0.09426342592592596</v>
+        <v>-0.09426342592592589</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>-0.3750651455026458</v>
+        <v>-0.3750651455026456</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1436,13 +1436,13 @@
         <v>-0.228</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-0.5310904761904766</v>
+        <v>-0.5310904761904762</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-0.0947372023809524</v>
+        <v>-0.09473720238095235</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>-0.4363532738095242</v>
+        <v>-0.4363532738095239</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1453,13 +1453,13 @@
         <v>-0.232</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>-0.5965619047619053</v>
+        <v>-0.5965619047619048</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-0.09521097883597887</v>
+        <v>-0.0952109788359788</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>-0.5013509259259264</v>
+        <v>-0.501350925925926</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1470,13 +1470,13 @@
         <v>-0.236</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>-0.6643095238095243</v>
+        <v>-0.664309523809524</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-0.09568475529100531</v>
+        <v>-0.09568475529100526</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>-0.5686247685185191</v>
+        <v>-0.5686247685185187</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1487,13 +1487,13 @@
         <v>-0.24</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-0.7325952380952386</v>
+        <v>-0.7325952380952383</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-0.09615853174603177</v>
+        <v>-0.09615853174603171</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>-0.6364367063492069</v>
+        <v>-0.6364367063492066</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1504,13 +1504,13 @@
         <v>-0.244</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>-0.7997238095238101</v>
+        <v>-0.7997238095238096</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-0.09663230820105823</v>
+        <v>-0.09663230820105817</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>-0.7030915013227519</v>
+        <v>-0.7030915013227514</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1521,13 +1521,13 @@
         <v>-0.248</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>-0.8632904761904767</v>
+        <v>-0.8632904761904763</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-0.09710608465608468</v>
+        <v>-0.09710608465608461</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>-0.766184391534392</v>
+        <v>-0.7661843915343917</v>
       </c>
       <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
@@ -1538,13 +1538,13 @@
         <v>-0.252</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-0.9218095238095244</v>
+        <v>-0.9218095238095239</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-0.09757986111111114</v>
+        <v>-0.09757986111111108</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>-0.8242296626984132</v>
+        <v>-0.8242296626984128</v>
       </c>
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
@@ -1555,13 +1555,13 @@
         <v>-0.256</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>-0.9729666666666673</v>
+        <v>-0.9729666666666668</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-0.09805363756613759</v>
+        <v>-0.09805363756613752</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>-0.8749130291005297</v>
+        <v>-0.8749130291005293</v>
       </c>
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
@@ -1572,13 +1572,13 @@
         <v>-0.26</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-1.015204761904763</v>
+        <v>-1.015204761904762</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-0.09852741402116405</v>
+        <v>-0.09852741402116398</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>-0.9166773478835986</v>
+        <v>-0.9166773478835982</v>
       </c>
       <c r="E66" s="2" t="n"/>
       <c r="F66" s="2" t="n"/>
@@ -1592,10 +1592,10 @@
         <v>-1.047028571428572</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-0.09900119047619051</v>
+        <v>-0.09900119047619044</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>-0.9480273809523816</v>
+        <v>-0.9480273809523811</v>
       </c>
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="2" t="n"/>
@@ -1606,13 +1606,13 @@
         <v>-0.268</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-1.067800000000001</v>
+        <v>-1.0678</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-0.09947496693121696</v>
+        <v>-0.09947496693121689</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>-0.9683250330687838</v>
+        <v>-0.9683250330687831</v>
       </c>
       <c r="E68" s="2" t="n"/>
       <c r="F68" s="2" t="n"/>
@@ -1623,13 +1623,13 @@
         <v>-0.272</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>-1.076857142857144</v>
+        <v>-1.076857142857143</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-0.0999487433862434</v>
+        <v>-0.09994874338624335</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>-0.9769083994709002</v>
+        <v>-0.9769083994708996</v>
       </c>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
@@ -1640,13 +1640,13 @@
         <v>-0.276</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-1.074761904761906</v>
+        <v>-1.074761904761905</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-0.1004225198412699</v>
+        <v>-0.1004225198412698</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>-0.9743393849206359</v>
+        <v>-0.9743393849206352</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1663,7 +1663,7 @@
         <v>-0.1008962962962963</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>-0.960932275132276</v>
+        <v>-0.9609322751322753</v>
       </c>
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="2" t="n"/>
@@ -1677,10 +1677,10 @@
         <v>-1.039138095238096</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-0.1013700727513228</v>
+        <v>-0.1013700727513227</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>-0.9377680224867732</v>
+        <v>-0.9377680224867728</v>
       </c>
       <c r="E72" s="2" t="n"/>
       <c r="F72" s="2" t="n"/>
@@ -1691,13 +1691,13 @@
         <v>-0.288</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>-1.007838095238096</v>
+        <v>-1.007838095238095</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>-0.1018438492063492</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>-0.9059942460317464</v>
+        <v>-0.9059942460317461</v>
       </c>
       <c r="E73" s="2" t="n"/>
       <c r="F73" s="2" t="n"/>
@@ -1708,13 +1708,13 @@
         <v>-0.292</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>-0.9693238095238101</v>
+        <v>-0.9693238095238096</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-0.1023176256613757</v>
+        <v>-0.1023176256613756</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>-0.8670061838624344</v>
+        <v>-0.867006183862434</v>
       </c>
       <c r="E74" s="2" t="n"/>
       <c r="F74" s="2" t="n"/>
@@ -1725,13 +1725,13 @@
         <v>-0.296</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-0.9250904761904768</v>
+        <v>-0.9250904761904762</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>-0.1027914021164021</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>-0.8222990740740747</v>
+        <v>-0.8222990740740742</v>
       </c>
       <c r="E75" s="2" t="n"/>
       <c r="F75" s="2" t="n"/>
@@ -1742,13 +1742,13 @@
         <v>-0.3</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-0.876328571428572</v>
+        <v>-0.8763285714285716</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-0.1032651785714286</v>
+        <v>-0.1032651785714285</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>-0.7730633928571434</v>
+        <v>-0.7730633928571431</v>
       </c>
       <c r="E76" s="2" t="n"/>
       <c r="F76" s="2" t="n"/>
@@ -1759,13 +1759,13 @@
         <v>-0.304</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>-0.8242000000000006</v>
+        <v>-0.8242000000000002</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-0.1037389550264551</v>
+        <v>-0.103738955026455</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>-0.7204610449735456</v>
+        <v>-0.7204610449735451</v>
       </c>
       <c r="E77" s="2" t="n"/>
       <c r="F77" s="2" t="n"/>
@@ -1776,13 +1776,13 @@
         <v>-0.308</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>-0.7696238095238102</v>
+        <v>-0.7696238095238097</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>-0.1042127314814815</v>
+        <v>-0.1042127314814814</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>-0.6654110780423287</v>
+        <v>-0.6654110780423282</v>
       </c>
       <c r="E78" s="2" t="n"/>
       <c r="F78" s="2" t="n"/>
@@ -1793,13 +1793,13 @@
         <v>-0.312</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>-0.7135142857142862</v>
+        <v>-0.7135142857142859</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>-0.104686507936508</v>
+        <v>-0.1046865079365079</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>-0.6088277777777782</v>
+        <v>-0.608827777777778</v>
       </c>
       <c r="E79" s="2" t="n"/>
       <c r="F79" s="2" t="n"/>
@@ -1810,13 +1810,13 @@
         <v>-0.316</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>-0.656514285714286</v>
+        <v>-0.6565142857142857</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>-0.1051602843915344</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>-0.5513540013227516</v>
+        <v>-0.5513540013227514</v>
       </c>
       <c r="E80" s="2" t="n"/>
       <c r="F80" s="2" t="n"/>
@@ -1827,13 +1827,13 @@
         <v>-0.32</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>-0.5994809523809528</v>
+        <v>-0.5994809523809524</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>-0.1056340608465609</v>
+        <v>-0.1056340608465608</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>-0.4938468915343919</v>
+        <v>-0.4938468915343917</v>
       </c>
       <c r="E81" s="2" t="n"/>
       <c r="F81" s="2" t="n"/>
@@ -1844,13 +1844,13 @@
         <v>-0.324</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>-0.542971428571429</v>
+        <v>-0.5429714285714287</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>-0.1061078373015873</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>-0.4368635912698416</v>
+        <v>-0.4368635912698414</v>
       </c>
       <c r="E82" s="2" t="n"/>
       <c r="F82" s="2" t="n"/>
@@ -1861,13 +1861,13 @@
         <v>-0.328</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>-0.487766666666667</v>
+        <v>-0.4877666666666667</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>-0.1065816137566138</v>
+        <v>-0.1065816137566137</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>-0.3811850529100532</v>
+        <v>-0.381185052910053</v>
       </c>
       <c r="E83" s="2" t="n"/>
       <c r="F83" s="2" t="n"/>
@@ -1878,13 +1878,13 @@
         <v>-0.332</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>-0.4345761904761908</v>
+        <v>-0.4345761904761905</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>-0.1070553902116402</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>-0.3275208002645505</v>
+        <v>-0.3275208002645503</v>
       </c>
       <c r="E84" s="2" t="n"/>
       <c r="F84" s="2" t="n"/>
@@ -1895,13 +1895,13 @@
         <v>-0.336</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>-0.3845952380952383</v>
+        <v>-0.3845952380952381</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>-0.1075291666666667</v>
+        <v>-0.1075291666666666</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>-0.2770660714285716</v>
+        <v>-0.2770660714285715</v>
       </c>
       <c r="E85" s="2" t="n"/>
       <c r="F85" s="2" t="n"/>
@@ -1912,13 +1912,13 @@
         <v>-0.34</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>-0.3386190476190478</v>
+        <v>-0.3386190476190476</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>-0.1080029431216931</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>-0.2306161044973547</v>
+        <v>-0.2306161044973545</v>
       </c>
       <c r="E86" s="2" t="n"/>
       <c r="F86" s="2" t="n"/>
@@ -1929,13 +1929,13 @@
         <v>-0.344</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>-0.2974285714285716</v>
+        <v>-0.2974285714285714</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>-0.1084767195767196</v>
+        <v>-0.1084767195767195</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>-0.188951851851852</v>
+        <v>-0.1889518518518519</v>
       </c>
       <c r="E87" s="2" t="n"/>
       <c r="F87" s="2" t="n"/>
@@ -1946,10 +1946,10 @@
         <v>-0.348</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>-0.2611238095238096</v>
+        <v>-0.2611238095238095</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>-0.1089504960317461</v>
+        <v>-0.108950496031746</v>
       </c>
       <c r="D88" s="2" t="n">
         <v>-0.1521733134920636</v>
@@ -1963,13 +1963,13 @@
         <v>-0.352</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>-0.2300523809523811</v>
+        <v>-0.230052380952381</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>-0.1094242724867725</v>
+        <v>-0.1094242724867724</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>-0.1206281084656086</v>
+        <v>-0.1206281084656085</v>
       </c>
       <c r="E89" s="2" t="n"/>
       <c r="F89" s="2" t="n"/>
@@ -1980,13 +1980,13 @@
         <v>-0.356</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>-0.203804761904762</v>
+        <v>-0.2038047619047619</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>-0.109898048941799</v>
+        <v>-0.1098980489417989</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>-0.09390671296296307</v>
+        <v>-0.09390671296296305</v>
       </c>
       <c r="E90" s="2" t="n"/>
       <c r="F90" s="2" t="n"/>
@@ -1997,13 +1997,13 @@
         <v>-0.36</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>-0.1823428571428573</v>
+        <v>-0.1823428571428571</v>
       </c>
       <c r="C91" s="2" t="n">
         <v>-0.1103718253968254</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>-0.07197103174603184</v>
+        <v>-0.07197103174603178</v>
       </c>
       <c r="E91" s="2" t="n"/>
       <c r="F91" s="2" t="n"/>
@@ -2014,13 +2014,13 @@
         <v>-0.364</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>-0.1651809523809525</v>
+        <v>-0.1651809523809524</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>-0.1108456018518519</v>
+        <v>-0.1108456018518518</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>-0.0543353505291006</v>
+        <v>-0.05433535052910057</v>
       </c>
       <c r="E92" s="2" t="n"/>
       <c r="F92" s="2" t="n"/>
@@ -2031,13 +2031,13 @@
         <v>-0.368</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>-0.1516000000000001</v>
+        <v>-0.1516</v>
       </c>
       <c r="C93" s="2" t="n">
         <v>-0.1113193783068783</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>-0.04028062169312177</v>
+        <v>-0.04028062169312174</v>
       </c>
       <c r="E93" s="2" t="n"/>
       <c r="F93" s="2" t="n"/>
@@ -2051,7 +2051,7 @@
         <v>-0.1409571428571429</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>-0.1117931547619048</v>
+        <v>-0.1117931547619047</v>
       </c>
       <c r="D94" s="2" t="n">
         <v>-0.02916398809523815</v>
@@ -2065,13 +2065,13 @@
         <v>-0.376</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>-0.1330952380952382</v>
+        <v>-0.1330952380952381</v>
       </c>
       <c r="C95" s="2" t="n">
         <v>-0.1122669312169312</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>-0.02082830687830692</v>
+        <v>-0.02082830687830693</v>
       </c>
       <c r="E95" s="2" t="n"/>
       <c r="F95" s="2" t="n"/>
@@ -2082,13 +2082,13 @@
         <v>-0.38</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>-0.1271761904761906</v>
+        <v>-0.1271761904761905</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>-0.1127407076719577</v>
+        <v>-0.1127407076719576</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>-0.01443548280423285</v>
+        <v>-0.01443548280423287</v>
       </c>
       <c r="E96" s="2" t="n"/>
       <c r="F96" s="2" t="n"/>
@@ -2099,7 +2099,7 @@
         <v>-0.384</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>-0.1229190476190477</v>
+        <v>-0.1229190476190476</v>
       </c>
       <c r="C97" s="2" t="n">
         <v>-0.1132144841269841</v>
@@ -2119,7 +2119,7 @@
         <v>-0.1199428571428572</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>-0.1136882605820106</v>
+        <v>-0.1136882605820105</v>
       </c>
       <c r="D98" s="2" t="n">
         <v>-0.00625459656084662</v>
@@ -2133,13 +2133,13 @@
         <v>-0.392</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>-0.1178190476190477</v>
+        <v>-0.1178190476190476</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>-0.1141620370370371</v>
+        <v>-0.114162037037037</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>-0.003657010582010622</v>
+        <v>-0.003657010582010636</v>
       </c>
       <c r="E99" s="2" t="n"/>
       <c r="F99" s="2" t="n"/>
@@ -2153,7 +2153,7 @@
         <v>-0.1164619047619048</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>-0.1146358134920635</v>
+        <v>-0.1146358134920634</v>
       </c>
       <c r="D100" s="2" t="n">
         <v>-0.001826091269841332</v>
@@ -2167,13 +2167,13 @@
         <v>-0.4</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>-0.1158857142857144</v>
+        <v>-0.1158857142857143</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>-0.11510958994709</v>
+        <v>-0.1151095899470899</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>-0.0007761243386243954</v>
+        <v>-0.0007761243386244093</v>
       </c>
       <c r="E101" s="2" t="n"/>
       <c r="F101" s="2" t="n"/>
@@ -2184,7 +2184,7 @@
         <v>-0.404</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>-0.1157809523809525</v>
+        <v>-0.1157809523809524</v>
       </c>
       <c r="C102" s="2" t="n">
         <v>-0.1155833664021164</v>
@@ -2204,7 +2204,7 @@
         <v>-0.1160571428571429</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>-0.1160571428571429</v>
+        <v>-0.1160571428571428</v>
       </c>
       <c r="D103" s="2" t="n">
         <v>-5.551115123125783e-17</v>
@@ -2235,10 +2235,10 @@
         <v>-0.416</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>-0.1174666666666668</v>
+        <v>-0.1174666666666667</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>-0.1174666666666668</v>
+        <v>-0.1174666666666667</v>
       </c>
       <c r="D105" s="2" t="n">
         <v>0</v>
@@ -2252,10 +2252,10 @@
         <v>-0.42</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>-0.118404761904762</v>
+        <v>-0.1184047619047619</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>-0.118404761904762</v>
+        <v>-0.1184047619047619</v>
       </c>
       <c r="D106" s="2" t="n">
         <v>0</v>
@@ -2269,10 +2269,10 @@
         <v>-0.424</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>-0.1195000000000001</v>
+        <v>-0.1195</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>-0.1195000000000001</v>
+        <v>-0.1195</v>
       </c>
       <c r="D107" s="2" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>-0.428</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>-0.120804761904762</v>
+        <v>-0.1208047619047619</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>-0.120804761904762</v>
+        <v>-0.1208047619047619</v>
       </c>
       <c r="D108" s="2" t="n">
         <v>0</v>
@@ -2303,10 +2303,10 @@
         <v>-0.432</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>-0.1222285714285715</v>
+        <v>-0.1222285714285714</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>-0.1222285714285715</v>
+        <v>-0.1222285714285714</v>
       </c>
       <c r="D109" s="2" t="n">
         <v>0</v>
@@ -2320,10 +2320,10 @@
         <v>-0.436</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>-0.1238904761904763</v>
+        <v>-0.1238904761904762</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>-0.1238904761904763</v>
+        <v>-0.1238904761904762</v>
       </c>
       <c r="D110" s="2" t="n">
         <v>0</v>
@@ -2337,10 +2337,10 @@
         <v>-0.44</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>-0.1254666666666668</v>
+        <v>-0.1254666666666667</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>-0.1254666666666668</v>
+        <v>-0.1254666666666667</v>
       </c>
       <c r="D111" s="2" t="n">
         <v>0</v>
@@ -2354,10 +2354,10 @@
         <v>-0.444</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>-0.1271238095238096</v>
+        <v>-0.1271238095238095</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>-0.1271238095238096</v>
+        <v>-0.1271238095238095</v>
       </c>
       <c r="D112" s="2" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>-0.448</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>-0.1288190476190477</v>
+        <v>-0.1288190476190476</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>-0.1288190476190477</v>
+        <v>-0.1288190476190476</v>
       </c>
       <c r="D113" s="2" t="n">
         <v>0</v>
@@ -2388,10 +2388,10 @@
         <v>-0.452</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>-0.1306142857142858</v>
+        <v>-0.1306142857142857</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>-0.1306142857142858</v>
+        <v>-0.1306142857142857</v>
       </c>
       <c r="D114" s="2" t="n">
         <v>0</v>
@@ -2405,10 +2405,10 @@
         <v>-0.456</v>
       </c>
       <c r="B115" s="2" t="n">
-        <v>-0.1325285714285715</v>
+        <v>-0.1325285714285714</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>-0.1325285714285715</v>
+        <v>-0.1325285714285714</v>
       </c>
       <c r="D115" s="2" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         <v>-0.472</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>-0.1415714285714287</v>
+        <v>-0.1415714285714286</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>-0.1415714285714287</v>
+        <v>-0.1415714285714286</v>
       </c>
       <c r="D119" s="2" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>-0.476</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>-0.144204761904762</v>
+        <v>-0.1442047619047619</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>-0.144204761904762</v>
+        <v>-0.1442047619047619</v>
       </c>
       <c r="D120" s="2" t="n">
         <v>0</v>
@@ -2507,10 +2507,10 @@
         <v>-0.48</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>-0.1469333333333334</v>
+        <v>-0.1469333333333333</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>-0.1469333333333334</v>
+        <v>-0.1469333333333333</v>
       </c>
       <c r="D121" s="2" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>-0.484</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>-0.1498238095238096</v>
+        <v>-0.1498238095238095</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>-0.1498238095238096</v>
+        <v>-0.1498238095238095</v>
       </c>
       <c r="D122" s="2" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>-0.488</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>-0.1528714285714287</v>
+        <v>-0.1528714285714286</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>-0.1528714285714287</v>
+        <v>-0.1528714285714286</v>
       </c>
       <c r="D123" s="2" t="n">
         <v>0</v>
@@ -2644,7 +2644,7 @@
         <v>-0.272</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.9769083994709002</v>
+        <v>-0.9769083994708996</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Test SWV/DPV Analysis/Analysis Files/Apt1.xlsx
+++ b/Data/Test SWV/DPV Analysis/Analysis Files/Apt1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,13 +477,13 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.004</v>
+        <v>-0.1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.07754476190476184</v>
+        <v>-0.08021333333333344</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-0.07754476190476184</v>
+        <v>-0.08021333333333344</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
@@ -493,18 +493,18 @@
         <v>-0.272</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-0.9769083994708996</v>
+        <v>-0.9769083994709002</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.008</v>
+        <v>-0.104</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.07820833333333332</v>
+        <v>-0.08071523809523817</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-0.07820833333333332</v>
+        <v>-0.08071523809523817</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0</v>
@@ -515,13 +515,13 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.012</v>
+        <v>-0.108</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-0.07839333333333336</v>
+        <v>-0.08102095238095247</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-0.07839333333333336</v>
+        <v>-0.08102095238095247</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -532,13 +532,13 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>-0.016</v>
+        <v>-0.112</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-0.07829809523809525</v>
+        <v>-0.08124714285714291</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-0.07829809523809525</v>
+        <v>-0.08124714285714291</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0</v>
@@ -549,13 +549,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>-0.02</v>
+        <v>-0.116</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-0.07818190476190479</v>
+        <v>-0.08160095238095244</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-0.07818190476190479</v>
+        <v>-0.08160095238095244</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -566,16 +566,16 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>-0.024</v>
+        <v>-0.12</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-0.07814809523809524</v>
+        <v>-0.08194523809523815</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-0.07814809523809524</v>
+        <v>-0.08194523809523813</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0</v>
+        <v>-2.775557561562891e-17</v>
       </c>
       <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="n"/>
@@ -583,16 +583,16 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>-0.028</v>
+        <v>-0.124</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-0.07823476190476192</v>
+        <v>-0.08247666666666673</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-0.07823476190476192</v>
+        <v>-0.08241901455026458</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0</v>
+        <v>-5.765211640214318e-05</v>
       </c>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
@@ -600,16 +600,16 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>-0.032</v>
+        <v>-0.128</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-0.07826190476190478</v>
+        <v>-0.08305666666666672</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-0.07826190476190478</v>
+        <v>-0.08289279100529104</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0</v>
+        <v>-0.0001638756613756842</v>
       </c>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
@@ -617,16 +617,16 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>-0.036</v>
+        <v>-0.132</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-0.07821333333333334</v>
+        <v>-0.08372666666666671</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-0.07821333333333334</v>
+        <v>-0.08336656746031749</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0</v>
+        <v>-0.0003600992063492181</v>
       </c>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -634,16 +634,16 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>-0.04</v>
+        <v>-0.136</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-0.0782252380952381</v>
+        <v>-0.08450190476190481</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-0.0782252380952381</v>
+        <v>-0.08384034391534395</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0</v>
+        <v>-0.0006615608465608547</v>
       </c>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
@@ -651,16 +651,16 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>-0.044</v>
+        <v>-0.14</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-0.07823666666666668</v>
+        <v>-0.0855785714285715</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-0.07823666666666668</v>
+        <v>-0.08431412037037041</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0</v>
+        <v>-0.001264451058201096</v>
       </c>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
@@ -668,16 +668,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>-0.048</v>
+        <v>-0.144</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-0.07833809523809525</v>
+        <v>-0.08683666666666673</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-0.07833809523809525</v>
+        <v>-0.08478789682539686</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0</v>
+        <v>-0.002048769841269865</v>
       </c>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -685,16 +685,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>-0.052</v>
+        <v>-0.148</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-0.07847904761904763</v>
+        <v>-0.08843904761904768</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-0.07847904761904763</v>
+        <v>-0.08526167328042331</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0</v>
+        <v>-0.003177374338624375</v>
       </c>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -702,16 +702,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>-0.056</v>
+        <v>-0.152</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-0.07862190476190478</v>
+        <v>-0.09034571428571433</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-0.07862190476190478</v>
+        <v>-0.08573544973544978</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0</v>
+        <v>-0.004610264550264559</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -719,16 +719,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>-0.06</v>
+        <v>-0.156</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-0.07871666666666666</v>
+        <v>-0.0926576190476191</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-0.07871666666666666</v>
+        <v>-0.08620922619047622</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0</v>
+        <v>-0.006448392857142882</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -736,16 +736,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>-0.064</v>
+        <v>-0.16</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-0.07882380952380952</v>
+        <v>-0.09567904761904769</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-0.07882380952380952</v>
+        <v>-0.08668300264550267</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0</v>
+        <v>-0.008996044973545017</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -753,16 +753,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>-0.068</v>
+        <v>-0.164</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-0.07901380952380953</v>
+        <v>-0.09925142857142863</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-0.07901380952380953</v>
+        <v>-0.08715677910052913</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0</v>
+        <v>-0.0120946494708995</v>
       </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -770,16 +770,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>-0.07199999999999999</v>
+        <v>-0.168</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-0.07921285714285715</v>
+        <v>-0.1038885714285715</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-0.07921285714285715</v>
+        <v>-0.08763055555555559</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0</v>
+        <v>-0.01625801587301591</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -787,16 +787,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>-0.076</v>
+        <v>-0.172</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-0.07939714285714286</v>
+        <v>-0.1095838095238096</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-0.07939714285714286</v>
+        <v>-0.08810433201058204</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0</v>
+        <v>-0.02147947751322755</v>
       </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
@@ -804,16 +804,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>-0.08</v>
+        <v>-0.176</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-0.07955619047619047</v>
+        <v>-0.1167333333333334</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-0.07955619047619047</v>
+        <v>-0.0885781084656085</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0</v>
+        <v>-0.02815522486772491</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -821,16 +821,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>-0.08400000000000001</v>
+        <v>-0.18</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-0.07969190476190477</v>
+        <v>-0.1254809523809525</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-0.07969190476190477</v>
+        <v>-0.08905188492063495</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0</v>
+        <v>-0.03642906746031752</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
@@ -838,16 +838,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>-0.08799999999999999</v>
+        <v>-0.184</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-0.07987047619047619</v>
+        <v>-0.1364380952380953</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-0.07987047619047619</v>
+        <v>-0.08952566137566141</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0</v>
+        <v>-0.04691243386243392</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -855,16 +855,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>-0.092</v>
+        <v>-0.188</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-0.08006857142857143</v>
+        <v>-0.1499238095238096</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-0.08006857142857143</v>
+        <v>-0.08999943783068787</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0</v>
+        <v>-0.05992437169312176</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -872,16 +872,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>-0.096</v>
+        <v>-0.192</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-0.08018904761904763</v>
+        <v>-0.1667380952380954</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-0.08018904761904763</v>
+        <v>-0.09047321428571431</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0</v>
+        <v>-0.07626488095238104</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -889,16 +889,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>-0.1</v>
+        <v>-0.196</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-0.08039761904761905</v>
+        <v>-0.1870952380952382</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-0.08039761904761905</v>
+        <v>-0.09094699074074078</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0</v>
+        <v>-0.09614824735449742</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -906,16 +906,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>-0.104</v>
+        <v>-0.2</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-0.08063000000000001</v>
+        <v>-0.2116047619047621</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-0.08063000000000001</v>
+        <v>-0.09142076719576722</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0</v>
+        <v>-0.1201839947089949</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -923,16 +923,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>-0.108</v>
+        <v>-0.204</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-0.08096095238095238</v>
+        <v>-0.2407000000000001</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-0.08096095238095238</v>
+        <v>-0.09189454365079368</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0</v>
+        <v>-0.1488054563492064</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -940,16 +940,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>-0.112</v>
+        <v>-0.208</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-0.08124714285714286</v>
+        <v>-0.2750142857142859</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-0.08124714285714286</v>
+        <v>-0.09236832010582013</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0</v>
+        <v>-0.1826459656084658</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -957,16 +957,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>-0.116</v>
+        <v>-0.212</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-0.08160095238095239</v>
+        <v>-0.3149761904761907</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-0.08160095238095239</v>
+        <v>-0.09284209656084659</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0</v>
+        <v>-0.2221340939153441</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -974,16 +974,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>-0.12</v>
+        <v>-0.216</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-0.0819452380952381</v>
+        <v>-0.3607761904761907</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-0.08194523809523807</v>
+        <v>-0.09331587301587305</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-2.775557561562891e-17</v>
+        <v>-0.2674603174603176</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -991,16 +991,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>-0.124</v>
+        <v>-0.22</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-0.08247666666666667</v>
+        <v>-0.412366666666667</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-0.08241901455026453</v>
+        <v>-0.0937896494708995</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-5.765211640214318e-05</v>
+        <v>-0.3185770171957675</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1008,16 +1008,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>-0.128</v>
+        <v>-0.224</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-0.08305666666666667</v>
+        <v>-0.4693285714285718</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-0.08289279100529098</v>
+        <v>-0.09426342592592596</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.0001638756613756842</v>
+        <v>-0.3750651455026458</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1025,16 +1025,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>-0.132</v>
+        <v>-0.228</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-0.08372666666666667</v>
+        <v>-0.5310904761904766</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-0.08336656746031743</v>
+        <v>-0.09473720238095241</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.0003600992063492459</v>
+        <v>-0.4363532738095242</v>
       </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
@@ -1042,16 +1042,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>-0.136</v>
+        <v>-0.232</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-0.08450190476190476</v>
+        <v>-0.5965619047619052</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-0.0838403439153439</v>
+        <v>-0.09521097883597887</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.0006615608465608686</v>
+        <v>-0.5013509259259263</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1059,16 +1059,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>-0.14</v>
+        <v>-0.236</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-0.08557857142857145</v>
+        <v>-0.6643095238095242</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-0.08431412037037034</v>
+        <v>-0.09568475529100531</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-0.00126445105820111</v>
+        <v>-0.568624768518519</v>
       </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
@@ -1076,16 +1076,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>-0.144</v>
+        <v>-0.24</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-0.08683666666666667</v>
+        <v>-0.7325952380952387</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-0.08478789682539679</v>
+        <v>-0.09615853174603178</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-0.002048769841269879</v>
+        <v>-0.6364367063492069</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1093,16 +1093,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>-0.148</v>
+        <v>-0.244</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-0.08843904761904764</v>
+        <v>-0.7997238095238099</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-0.08526167328042325</v>
+        <v>-0.09663230820105823</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-0.003177374338624389</v>
+        <v>-0.7030915013227517</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1110,16 +1110,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>-0.152</v>
+        <v>-0.248</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-0.09034571428571431</v>
+        <v>-0.8632904761904767</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-0.08573544973544971</v>
+        <v>-0.09710608465608468</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-0.004610264550264601</v>
+        <v>-0.766184391534392</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1127,16 +1127,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>-0.156</v>
+        <v>-0.252</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-0.09265761904761906</v>
+        <v>-0.9218095238095244</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-0.08620922619047616</v>
+        <v>-0.09757986111111114</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-0.006448392857142896</v>
+        <v>-0.8242296626984132</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1144,16 +1144,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>-0.16</v>
+        <v>-0.256</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-0.09567904761904764</v>
+        <v>-0.9729666666666673</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-0.08668300264550262</v>
+        <v>-0.09805363756613759</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-0.008996044973545017</v>
+        <v>-0.8749130291005297</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1161,16 +1161,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>-0.164</v>
+        <v>-0.26</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>-0.09925142857142857</v>
+        <v>-1.015204761904763</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-0.08715677910052907</v>
+        <v>-0.09852741402116405</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-0.0120946494708995</v>
+        <v>-0.9166773478835986</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1178,16 +1178,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>-0.168</v>
+        <v>-0.264</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>-0.1038885714285714</v>
+        <v>-1.047028571428572</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-0.08763055555555553</v>
+        <v>-0.09900119047619051</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-0.01625801587301591</v>
+        <v>-0.9480273809523816</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1195,16 +1195,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>-0.172</v>
+        <v>-0.268</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-0.1095838095238095</v>
+        <v>-1.067800000000001</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-0.08810433201058199</v>
+        <v>-0.09947496693121696</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>-0.02147947751322754</v>
+        <v>-0.9683250330687838</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1212,16 +1212,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>-0.176</v>
+        <v>-0.272</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-0.1167333333333333</v>
+        <v>-1.076857142857144</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-0.08857810846560843</v>
+        <v>-0.09994874338624342</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>-0.02815522486772491</v>
+        <v>-0.9769083994709002</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1229,16 +1229,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>-0.18</v>
+        <v>-0.276</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-0.1254809523809524</v>
+        <v>-1.074761904761905</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-0.08905188492063489</v>
+        <v>-0.1004225198412699</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>-0.03642906746031753</v>
+        <v>-0.9743393849206357</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1246,16 +1246,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>-0.184</v>
+        <v>-0.28</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-0.1364380952380952</v>
+        <v>-1.061828571428572</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-0.08952566137566134</v>
+        <v>-0.1008962962962963</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>-0.04691243386243391</v>
+        <v>-0.9609322751322759</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1263,16 +1263,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>-0.188</v>
+        <v>-0.284</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-0.1499238095238095</v>
+        <v>-1.039138095238096</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-0.0899994378306878</v>
+        <v>-0.1013700727513228</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>-0.05992437169312174</v>
+        <v>-0.9377680224867732</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1280,16 +1280,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>-0.192</v>
+        <v>-0.288</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-0.1667380952380952</v>
+        <v>-1.007838095238096</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-0.09047321428571425</v>
+        <v>-0.1018438492063492</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>-0.07626488095238099</v>
+        <v>-0.9059942460317464</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1297,16 +1297,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>-0.196</v>
+        <v>-0.292</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-0.1870952380952381</v>
+        <v>-0.96932380952381</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-0.09094699074074071</v>
+        <v>-0.1023176256613757</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-0.09614824735449741</v>
+        <v>-0.8670061838624343</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1314,16 +1314,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>-0.2</v>
+        <v>-0.296</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-0.211604761904762</v>
+        <v>-0.9250904761904768</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-0.09142076719576717</v>
+        <v>-0.1027914021164021</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>-0.1201839947089948</v>
+        <v>-0.8222990740740747</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1331,16 +1331,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>-0.204</v>
+        <v>-0.3</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>-0.2407</v>
+        <v>-0.876328571428572</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-0.09189454365079361</v>
+        <v>-0.1032651785714286</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>-0.1488054563492064</v>
+        <v>-0.7730633928571434</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1348,16 +1348,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>-0.208</v>
+        <v>-0.304</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>-0.2750142857142858</v>
+        <v>-0.8242000000000005</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-0.09236832010582008</v>
+        <v>-0.1037389550264551</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-0.1826459656084657</v>
+        <v>-0.7204610449735455</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1365,16 +1365,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>-0.212</v>
+        <v>-0.308</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>-0.3149761904761905</v>
+        <v>-0.76962380952381</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-0.09284209656084652</v>
+        <v>-0.1042127314814815</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-0.222134093915344</v>
+        <v>-0.6654110780423286</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1382,16 +1382,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>-0.216</v>
+        <v>-0.312</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-0.3607761904761905</v>
+        <v>-0.7135142857142862</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-0.09331587301587298</v>
+        <v>-0.104686507936508</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>-0.2674603174603176</v>
+        <v>-0.6088277777777782</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1399,16 +1399,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>-0.22</v>
+        <v>-0.316</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>-0.4123666666666668</v>
+        <v>-0.656514285714286</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-0.09378964947089943</v>
+        <v>-0.1051602843915344</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>-0.3185770171957674</v>
+        <v>-0.5513540013227516</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1416,16 +1416,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.32</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>-0.4693285714285715</v>
+        <v>-0.5994809523809528</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-0.09426342592592589</v>
+        <v>-0.1056340608465609</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>-0.3750651455026456</v>
+        <v>-0.4938468915343919</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1433,16 +1433,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>-0.228</v>
+        <v>-0.324</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-0.5310904761904762</v>
+        <v>-0.542971428571429</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-0.09473720238095235</v>
+        <v>-0.1061078373015873</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>-0.4363532738095239</v>
+        <v>-0.4368635912698416</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1450,16 +1450,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>-0.232</v>
+        <v>-0.328</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>-0.5965619047619048</v>
+        <v>-0.487766666666667</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-0.0952109788359788</v>
+        <v>-0.1065816137566138</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>-0.501350925925926</v>
+        <v>-0.3811850529100532</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1467,16 +1467,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>-0.236</v>
+        <v>-0.332</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>-0.664309523809524</v>
+        <v>-0.4345761904761908</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-0.09568475529100526</v>
+        <v>-0.1070553902116402</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>-0.5686247685185187</v>
+        <v>-0.3275208002645505</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1484,16 +1484,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>-0.24</v>
+        <v>-0.336</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-0.7325952380952383</v>
+        <v>-0.3845952380952383</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-0.09615853174603171</v>
+        <v>-0.1075291666666667</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>-0.6364367063492066</v>
+        <v>-0.2770660714285716</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1501,16 +1501,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>-0.244</v>
+        <v>-0.34</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>-0.7997238095238096</v>
+        <v>-0.3386190476190478</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-0.09663230820105817</v>
+        <v>-0.1080029431216931</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>-0.7030915013227514</v>
+        <v>-0.2306161044973547</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1518,16 +1518,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>-0.248</v>
+        <v>-0.344</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>-0.8632904761904763</v>
+        <v>-0.2974285714285716</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-0.09710608465608461</v>
+        <v>-0.1084767195767196</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>-0.7661843915343917</v>
+        <v>-0.188951851851852</v>
       </c>
       <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
@@ -1535,16 +1535,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>-0.252</v>
+        <v>-0.348</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-0.9218095238095239</v>
+        <v>-0.2611238095238096</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-0.09757986111111108</v>
+        <v>-0.1089504960317461</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>-0.8242296626984128</v>
+        <v>-0.1521733134920636</v>
       </c>
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
@@ -1552,16 +1552,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>-0.256</v>
+        <v>-0.352</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>-0.9729666666666668</v>
+        <v>-0.2300523809523811</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-0.09805363756613752</v>
+        <v>-0.1094242724867725</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>-0.8749130291005293</v>
+        <v>-0.1206281084656086</v>
       </c>
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
@@ -1569,16 +1569,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>-0.26</v>
+        <v>-0.356</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-1.015204761904762</v>
+        <v>-0.203804761904762</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-0.09852741402116398</v>
+        <v>-0.109898048941799</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>-0.9166773478835982</v>
+        <v>-0.09390671296296305</v>
       </c>
       <c r="E66" s="2" t="n"/>
       <c r="F66" s="2" t="n"/>
@@ -1586,16 +1586,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>-0.264</v>
+        <v>-0.36</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-1.047028571428572</v>
+        <v>-0.1823428571428573</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-0.09900119047619044</v>
+        <v>-0.1103718253968254</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>-0.9480273809523811</v>
+        <v>-0.07197103174603184</v>
       </c>
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="2" t="n"/>
@@ -1603,16 +1603,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>-0.268</v>
+        <v>-0.364</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-1.0678</v>
+        <v>-0.1651809523809525</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-0.09947496693121689</v>
+        <v>-0.1108456018518519</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>-0.9683250330687831</v>
+        <v>-0.0543353505291006</v>
       </c>
       <c r="E68" s="2" t="n"/>
       <c r="F68" s="2" t="n"/>
@@ -1620,16 +1620,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>-0.272</v>
+        <v>-0.368</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>-1.076857142857143</v>
+        <v>-0.1516000000000001</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-0.09994874338624335</v>
+        <v>-0.1113193783068783</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>-0.9769083994708996</v>
+        <v>-0.04028062169312177</v>
       </c>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
@@ -1637,16 +1637,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>-0.276</v>
+        <v>-0.372</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-1.074761904761905</v>
+        <v>-0.1409571428571429</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-0.1004225198412698</v>
+        <v>-0.1117931547619048</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>-0.9743393849206352</v>
+        <v>-0.02916398809523815</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1654,16 +1654,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>-0.28</v>
+        <v>-0.376</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>-1.061828571428572</v>
+        <v>-0.1330952380952382</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-0.1008962962962963</v>
+        <v>-0.1122669312169312</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>-0.9609322751322753</v>
+        <v>-0.02082830687830692</v>
       </c>
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="2" t="n"/>
@@ -1671,16 +1671,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>-0.284</v>
+        <v>-0.38</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>-1.039138095238096</v>
+        <v>-0.1271761904761906</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-0.1013700727513227</v>
+        <v>-0.1127407076719577</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>-0.9377680224867728</v>
+        <v>-0.01443548280423285</v>
       </c>
       <c r="E72" s="2" t="n"/>
       <c r="F72" s="2" t="n"/>
@@ -1688,16 +1688,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>-0.288</v>
+        <v>-0.384</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>-1.007838095238095</v>
+        <v>-0.1229190476190477</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-0.1018438492063492</v>
+        <v>-0.1132144841269841</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>-0.9059942460317461</v>
+        <v>-0.009704563492063556</v>
       </c>
       <c r="E73" s="2" t="n"/>
       <c r="F73" s="2" t="n"/>
@@ -1705,16 +1705,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>-0.292</v>
+        <v>-0.388</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>-0.9693238095238096</v>
+        <v>-0.1199428571428572</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-0.1023176256613756</v>
+        <v>-0.1136882605820106</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>-0.867006183862434</v>
+        <v>-0.00625459656084662</v>
       </c>
       <c r="E74" s="2" t="n"/>
       <c r="F74" s="2" t="n"/>
@@ -1722,16 +1722,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>-0.296</v>
+        <v>-0.392</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-0.9250904761904762</v>
+        <v>-0.1178190476190477</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-0.1027914021164021</v>
+        <v>-0.1141620370370371</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>-0.8222990740740742</v>
+        <v>-0.003657010582010622</v>
       </c>
       <c r="E75" s="2" t="n"/>
       <c r="F75" s="2" t="n"/>
@@ -1739,16 +1739,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>-0.3</v>
+        <v>-0.396</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-0.8763285714285716</v>
+        <v>-0.1164619047619048</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-0.1032651785714285</v>
+        <v>-0.1146358134920635</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>-0.7730633928571431</v>
+        <v>-0.001826091269841332</v>
       </c>
       <c r="E76" s="2" t="n"/>
       <c r="F76" s="2" t="n"/>
@@ -1756,16 +1756,16 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>-0.304</v>
+        <v>-0.4</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>-0.8242000000000002</v>
+        <v>-0.1158857142857144</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-0.103738955026455</v>
+        <v>-0.11510958994709</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>-0.7204610449735451</v>
+        <v>-0.0007761243386243954</v>
       </c>
       <c r="E77" s="2" t="n"/>
       <c r="F77" s="2" t="n"/>
@@ -1773,16 +1773,16 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>-0.308</v>
+        <v>-0.404</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>-0.7696238095238097</v>
+        <v>-0.1157809523809525</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>-0.1042127314814814</v>
+        <v>-0.1155833664021164</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>-0.6654110780423282</v>
+        <v>-0.0001975859788360262</v>
       </c>
       <c r="E78" s="2" t="n"/>
       <c r="F78" s="2" t="n"/>
@@ -1790,16 +1790,16 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>-0.312</v>
+        <v>-0.408</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>-0.7135142857142859</v>
+        <v>-0.1160571428571429</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>-0.1046865079365079</v>
+        <v>-0.1160571428571429</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>-0.608827777777778</v>
+        <v>-4.163336342344337e-17</v>
       </c>
       <c r="E79" s="2" t="n"/>
       <c r="F79" s="2" t="n"/>
@@ -1807,16 +1807,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>-0.316</v>
+        <v>-0.412</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>-0.6565142857142857</v>
+        <v>-0.1166571428571429</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>-0.1051602843915344</v>
+        <v>-0.1166571428571429</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>-0.5513540013227514</v>
+        <v>0</v>
       </c>
       <c r="E80" s="2" t="n"/>
       <c r="F80" s="2" t="n"/>
@@ -1824,16 +1824,16 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>-0.32</v>
+        <v>-0.416</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>-0.5994809523809524</v>
+        <v>-0.1174666666666667</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>-0.1056340608465608</v>
+        <v>-0.1174666666666667</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>-0.4938468915343917</v>
+        <v>0</v>
       </c>
       <c r="E81" s="2" t="n"/>
       <c r="F81" s="2" t="n"/>
@@ -1841,16 +1841,16 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>-0.324</v>
+        <v>-0.42</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>-0.5429714285714287</v>
+        <v>-0.118404761904762</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>-0.1061078373015873</v>
+        <v>-0.118404761904762</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>-0.4368635912698414</v>
+        <v>0</v>
       </c>
       <c r="E82" s="2" t="n"/>
       <c r="F82" s="2" t="n"/>
@@ -1858,16 +1858,16 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>-0.328</v>
+        <v>-0.424</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>-0.4877666666666667</v>
+        <v>-0.1195000000000001</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>-0.1065816137566137</v>
+        <v>-0.1195000000000001</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>-0.381185052910053</v>
+        <v>0</v>
       </c>
       <c r="E83" s="2" t="n"/>
       <c r="F83" s="2" t="n"/>
@@ -1875,16 +1875,16 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>-0.332</v>
+        <v>-0.428</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>-0.4345761904761905</v>
+        <v>-0.120804761904762</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>-0.1070553902116402</v>
+        <v>-0.120804761904762</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>-0.3275208002645503</v>
+        <v>0</v>
       </c>
       <c r="E84" s="2" t="n"/>
       <c r="F84" s="2" t="n"/>
@@ -1892,16 +1892,16 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>-0.336</v>
+        <v>-0.432</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>-0.3845952380952381</v>
+        <v>-0.1222285714285715</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>-0.1075291666666666</v>
+        <v>-0.1222285714285715</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>-0.2770660714285715</v>
+        <v>0</v>
       </c>
       <c r="E85" s="2" t="n"/>
       <c r="F85" s="2" t="n"/>
@@ -1909,16 +1909,16 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>-0.34</v>
+        <v>-0.436</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>-0.3386190476190476</v>
+        <v>-0.1238904761904763</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>-0.1080029431216931</v>
+        <v>-0.1238904761904763</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>-0.2306161044973545</v>
+        <v>0</v>
       </c>
       <c r="E86" s="2" t="n"/>
       <c r="F86" s="2" t="n"/>
@@ -1926,16 +1926,16 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>-0.344</v>
+        <v>-0.44</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>-0.2974285714285714</v>
+        <v>-0.1254666666666668</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>-0.1084767195767195</v>
+        <v>-0.1254666666666668</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>-0.1889518518518519</v>
+        <v>0</v>
       </c>
       <c r="E87" s="2" t="n"/>
       <c r="F87" s="2" t="n"/>
@@ -1943,16 +1943,16 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>-0.348</v>
+        <v>-0.444</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>-0.2611238095238095</v>
+        <v>-0.1271238095238096</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>-0.108950496031746</v>
+        <v>-0.1271238095238096</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>-0.1521733134920636</v>
+        <v>0</v>
       </c>
       <c r="E88" s="2" t="n"/>
       <c r="F88" s="2" t="n"/>
@@ -1960,16 +1960,16 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>-0.352</v>
+        <v>-0.448</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>-0.230052380952381</v>
+        <v>-0.1288190476190477</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>-0.1094242724867724</v>
+        <v>-0.1288190476190477</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>-0.1206281084656085</v>
+        <v>0</v>
       </c>
       <c r="E89" s="2" t="n"/>
       <c r="F89" s="2" t="n"/>
@@ -1977,16 +1977,16 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>-0.356</v>
+        <v>-0.452</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>-0.2038047619047619</v>
+        <v>-0.1306142857142858</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>-0.1098980489417989</v>
+        <v>-0.1306142857142858</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>-0.09390671296296305</v>
+        <v>0</v>
       </c>
       <c r="E90" s="2" t="n"/>
       <c r="F90" s="2" t="n"/>
@@ -1994,16 +1994,16 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>-0.36</v>
+        <v>-0.456</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>-0.1823428571428571</v>
+        <v>-0.1325285714285715</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>-0.1103718253968254</v>
+        <v>-0.1325285714285715</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>-0.07197103174603178</v>
+        <v>0</v>
       </c>
       <c r="E91" s="2" t="n"/>
       <c r="F91" s="2" t="n"/>
@@ -2011,16 +2011,16 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>-0.364</v>
+        <v>-0.46</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>-0.1651809523809524</v>
+        <v>-0.1346571428571429</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>-0.1108456018518518</v>
+        <v>-0.1346571428571429</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>-0.05433535052910057</v>
+        <v>0</v>
       </c>
       <c r="E92" s="2" t="n"/>
       <c r="F92" s="2" t="n"/>
@@ -2028,16 +2028,16 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>-0.368</v>
+        <v>-0.464</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>-0.1516</v>
+        <v>-0.1368380952380953</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>-0.1113193783068783</v>
+        <v>-0.1368380952380953</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>-0.04028062169312174</v>
+        <v>0</v>
       </c>
       <c r="E93" s="2" t="n"/>
       <c r="F93" s="2" t="n"/>
@@ -2045,16 +2045,16 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>-0.372</v>
+        <v>-0.468</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>-0.1409571428571429</v>
+        <v>-0.1392571428571429</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>-0.1117931547619047</v>
+        <v>-0.1392571428571429</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>-0.02916398809523815</v>
+        <v>0</v>
       </c>
       <c r="E94" s="2" t="n"/>
       <c r="F94" s="2" t="n"/>
@@ -2062,16 +2062,16 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>-0.376</v>
+        <v>-0.472</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>-0.1330952380952381</v>
+        <v>-0.1415714285714286</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>-0.1122669312169312</v>
+        <v>-0.1415714285714286</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>-0.02082830687830693</v>
+        <v>0</v>
       </c>
       <c r="E95" s="2" t="n"/>
       <c r="F95" s="2" t="n"/>
@@ -2079,16 +2079,16 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>-0.38</v>
+        <v>-0.476</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>-0.1271761904761905</v>
+        <v>-0.144204761904762</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>-0.1127407076719576</v>
+        <v>-0.144204761904762</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>-0.01443548280423287</v>
+        <v>0</v>
       </c>
       <c r="E96" s="2" t="n"/>
       <c r="F96" s="2" t="n"/>
@@ -2096,16 +2096,16 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>-0.384</v>
+        <v>-0.48</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>-0.1229190476190476</v>
+        <v>-0.1469333333333334</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>-0.1132144841269841</v>
+        <v>-0.1469333333333334</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>-0.009704563492063556</v>
+        <v>0</v>
       </c>
       <c r="E97" s="2" t="n"/>
       <c r="F97" s="2" t="n"/>
@@ -2113,16 +2113,16 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>-0.388</v>
+        <v>-0.484</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>-0.1199428571428572</v>
+        <v>-0.1498238095238096</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>-0.1136882605820105</v>
+        <v>-0.1498238095238096</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>-0.00625459656084662</v>
+        <v>0</v>
       </c>
       <c r="E98" s="2" t="n"/>
       <c r="F98" s="2" t="n"/>
@@ -2130,16 +2130,16 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>-0.392</v>
+        <v>-0.488</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>-0.1178190476190476</v>
+        <v>-0.1528714285714287</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>-0.114162037037037</v>
+        <v>-0.1528714285714287</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>-0.003657010582010636</v>
+        <v>0</v>
       </c>
       <c r="E99" s="2" t="n"/>
       <c r="F99" s="2" t="n"/>
@@ -2147,16 +2147,16 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>-0.396</v>
+        <v>-0.492</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>-0.1164619047619048</v>
+        <v>-0.1560357142857144</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>-0.1146358134920634</v>
+        <v>-0.1560357142857144</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>-0.001826091269841332</v>
+        <v>0</v>
       </c>
       <c r="E100" s="2" t="n"/>
       <c r="F100" s="2" t="n"/>
@@ -2164,16 +2164,16 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>-0.4</v>
+        <v>-0.496</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>-0.1158857142857143</v>
+        <v>-0.1592500000000002</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>-0.1151095899470899</v>
+        <v>-0.1592500000000002</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>-0.0007761243386244093</v>
+        <v>0</v>
       </c>
       <c r="E101" s="2" t="n"/>
       <c r="F101" s="2" t="n"/>
@@ -2181,428 +2181,20 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>-0.404</v>
+        <v>-0.5</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>-0.1157809523809524</v>
+        <v>-0.162464285714286</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>-0.1155833664021164</v>
+        <v>-0.162464285714286</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>-0.0001975859788360262</v>
+        <v>0</v>
       </c>
       <c r="E102" s="2" t="n"/>
       <c r="F102" s="2" t="n"/>
       <c r="G102" s="2" t="n"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
-        <v>-0.408</v>
-      </c>
-      <c r="B103" s="2" t="n">
-        <v>-0.1160571428571429</v>
-      </c>
-      <c r="C103" s="2" t="n">
-        <v>-0.1160571428571428</v>
-      </c>
-      <c r="D103" s="2" t="n">
-        <v>-5.551115123125783e-17</v>
-      </c>
-      <c r="E103" s="2" t="n"/>
-      <c r="F103" s="2" t="n"/>
-      <c r="G103" s="2" t="n"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
-        <v>-0.412</v>
-      </c>
-      <c r="B104" s="2" t="n">
-        <v>-0.1166571428571429</v>
-      </c>
-      <c r="C104" s="2" t="n">
-        <v>-0.1166571428571429</v>
-      </c>
-      <c r="D104" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E104" s="2" t="n"/>
-      <c r="F104" s="2" t="n"/>
-      <c r="G104" s="2" t="n"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
-        <v>-0.416</v>
-      </c>
-      <c r="B105" s="2" t="n">
-        <v>-0.1174666666666667</v>
-      </c>
-      <c r="C105" s="2" t="n">
-        <v>-0.1174666666666667</v>
-      </c>
-      <c r="D105" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E105" s="2" t="n"/>
-      <c r="F105" s="2" t="n"/>
-      <c r="G105" s="2" t="n"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
-        <v>-0.42</v>
-      </c>
-      <c r="B106" s="2" t="n">
-        <v>-0.1184047619047619</v>
-      </c>
-      <c r="C106" s="2" t="n">
-        <v>-0.1184047619047619</v>
-      </c>
-      <c r="D106" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E106" s="2" t="n"/>
-      <c r="F106" s="2" t="n"/>
-      <c r="G106" s="2" t="n"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
-        <v>-0.424</v>
-      </c>
-      <c r="B107" s="2" t="n">
-        <v>-0.1195</v>
-      </c>
-      <c r="C107" s="2" t="n">
-        <v>-0.1195</v>
-      </c>
-      <c r="D107" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E107" s="2" t="n"/>
-      <c r="F107" s="2" t="n"/>
-      <c r="G107" s="2" t="n"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
-        <v>-0.428</v>
-      </c>
-      <c r="B108" s="2" t="n">
-        <v>-0.1208047619047619</v>
-      </c>
-      <c r="C108" s="2" t="n">
-        <v>-0.1208047619047619</v>
-      </c>
-      <c r="D108" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E108" s="2" t="n"/>
-      <c r="F108" s="2" t="n"/>
-      <c r="G108" s="2" t="n"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
-        <v>-0.432</v>
-      </c>
-      <c r="B109" s="2" t="n">
-        <v>-0.1222285714285714</v>
-      </c>
-      <c r="C109" s="2" t="n">
-        <v>-0.1222285714285714</v>
-      </c>
-      <c r="D109" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E109" s="2" t="n"/>
-      <c r="F109" s="2" t="n"/>
-      <c r="G109" s="2" t="n"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
-        <v>-0.436</v>
-      </c>
-      <c r="B110" s="2" t="n">
-        <v>-0.1238904761904762</v>
-      </c>
-      <c r="C110" s="2" t="n">
-        <v>-0.1238904761904762</v>
-      </c>
-      <c r="D110" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E110" s="2" t="n"/>
-      <c r="F110" s="2" t="n"/>
-      <c r="G110" s="2" t="n"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
-        <v>-0.44</v>
-      </c>
-      <c r="B111" s="2" t="n">
-        <v>-0.1254666666666667</v>
-      </c>
-      <c r="C111" s="2" t="n">
-        <v>-0.1254666666666667</v>
-      </c>
-      <c r="D111" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E111" s="2" t="n"/>
-      <c r="F111" s="2" t="n"/>
-      <c r="G111" s="2" t="n"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
-        <v>-0.444</v>
-      </c>
-      <c r="B112" s="2" t="n">
-        <v>-0.1271238095238095</v>
-      </c>
-      <c r="C112" s="2" t="n">
-        <v>-0.1271238095238095</v>
-      </c>
-      <c r="D112" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E112" s="2" t="n"/>
-      <c r="F112" s="2" t="n"/>
-      <c r="G112" s="2" t="n"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
-        <v>-0.448</v>
-      </c>
-      <c r="B113" s="2" t="n">
-        <v>-0.1288190476190476</v>
-      </c>
-      <c r="C113" s="2" t="n">
-        <v>-0.1288190476190476</v>
-      </c>
-      <c r="D113" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E113" s="2" t="n"/>
-      <c r="F113" s="2" t="n"/>
-      <c r="G113" s="2" t="n"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
-        <v>-0.452</v>
-      </c>
-      <c r="B114" s="2" t="n">
-        <v>-0.1306142857142857</v>
-      </c>
-      <c r="C114" s="2" t="n">
-        <v>-0.1306142857142857</v>
-      </c>
-      <c r="D114" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E114" s="2" t="n"/>
-      <c r="F114" s="2" t="n"/>
-      <c r="G114" s="2" t="n"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
-        <v>-0.456</v>
-      </c>
-      <c r="B115" s="2" t="n">
-        <v>-0.1325285714285714</v>
-      </c>
-      <c r="C115" s="2" t="n">
-        <v>-0.1325285714285714</v>
-      </c>
-      <c r="D115" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E115" s="2" t="n"/>
-      <c r="F115" s="2" t="n"/>
-      <c r="G115" s="2" t="n"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
-        <v>-0.46</v>
-      </c>
-      <c r="B116" s="2" t="n">
-        <v>-0.1346571428571429</v>
-      </c>
-      <c r="C116" s="2" t="n">
-        <v>-0.1346571428571429</v>
-      </c>
-      <c r="D116" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E116" s="2" t="n"/>
-      <c r="F116" s="2" t="n"/>
-      <c r="G116" s="2" t="n"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
-        <v>-0.464</v>
-      </c>
-      <c r="B117" s="2" t="n">
-        <v>-0.1368380952380953</v>
-      </c>
-      <c r="C117" s="2" t="n">
-        <v>-0.1368380952380953</v>
-      </c>
-      <c r="D117" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E117" s="2" t="n"/>
-      <c r="F117" s="2" t="n"/>
-      <c r="G117" s="2" t="n"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
-        <v>-0.468</v>
-      </c>
-      <c r="B118" s="2" t="n">
-        <v>-0.1392571428571429</v>
-      </c>
-      <c r="C118" s="2" t="n">
-        <v>-0.1392571428571429</v>
-      </c>
-      <c r="D118" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E118" s="2" t="n"/>
-      <c r="F118" s="2" t="n"/>
-      <c r="G118" s="2" t="n"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
-        <v>-0.472</v>
-      </c>
-      <c r="B119" s="2" t="n">
-        <v>-0.1415714285714286</v>
-      </c>
-      <c r="C119" s="2" t="n">
-        <v>-0.1415714285714286</v>
-      </c>
-      <c r="D119" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E119" s="2" t="n"/>
-      <c r="F119" s="2" t="n"/>
-      <c r="G119" s="2" t="n"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
-        <v>-0.476</v>
-      </c>
-      <c r="B120" s="2" t="n">
-        <v>-0.1442047619047619</v>
-      </c>
-      <c r="C120" s="2" t="n">
-        <v>-0.1442047619047619</v>
-      </c>
-      <c r="D120" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E120" s="2" t="n"/>
-      <c r="F120" s="2" t="n"/>
-      <c r="G120" s="2" t="n"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
-        <v>-0.48</v>
-      </c>
-      <c r="B121" s="2" t="n">
-        <v>-0.1469333333333333</v>
-      </c>
-      <c r="C121" s="2" t="n">
-        <v>-0.1469333333333333</v>
-      </c>
-      <c r="D121" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E121" s="2" t="n"/>
-      <c r="F121" s="2" t="n"/>
-      <c r="G121" s="2" t="n"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
-        <v>-0.484</v>
-      </c>
-      <c r="B122" s="2" t="n">
-        <v>-0.1498238095238095</v>
-      </c>
-      <c r="C122" s="2" t="n">
-        <v>-0.1498238095238095</v>
-      </c>
-      <c r="D122" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E122" s="2" t="n"/>
-      <c r="F122" s="2" t="n"/>
-      <c r="G122" s="2" t="n"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
-        <v>-0.488</v>
-      </c>
-      <c r="B123" s="2" t="n">
-        <v>-0.1528714285714286</v>
-      </c>
-      <c r="C123" s="2" t="n">
-        <v>-0.1528714285714286</v>
-      </c>
-      <c r="D123" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" s="2" t="n"/>
-      <c r="F123" s="2" t="n"/>
-      <c r="G123" s="2" t="n"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
-        <v>-0.492</v>
-      </c>
-      <c r="B124" s="2" t="n">
-        <v>-0.1560357142857144</v>
-      </c>
-      <c r="C124" s="2" t="n">
-        <v>-0.1560357142857144</v>
-      </c>
-      <c r="D124" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E124" s="2" t="n"/>
-      <c r="F124" s="2" t="n"/>
-      <c r="G124" s="2" t="n"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
-        <v>-0.496</v>
-      </c>
-      <c r="B125" s="2" t="n">
-        <v>-0.1592500000000002</v>
-      </c>
-      <c r="C125" s="2" t="n">
-        <v>-0.1592500000000002</v>
-      </c>
-      <c r="D125" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E125" s="2" t="n"/>
-      <c r="F125" s="2" t="n"/>
-      <c r="G125" s="2" t="n"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="B126" s="2" t="n">
-        <v>-0.162464285714286</v>
-      </c>
-      <c r="C126" s="2" t="n">
-        <v>-0.162464285714286</v>
-      </c>
-      <c r="D126" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E126" s="2" t="n"/>
-      <c r="F126" s="2" t="n"/>
-      <c r="G126" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2644,7 +2236,7 @@
         <v>-0.272</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.9769083994708996</v>
+        <v>-0.9769083994709002</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Test SWV/DPV Analysis/Analysis Files/Apt1.xlsx
+++ b/Data/Test SWV/DPV Analysis/Analysis Files/Apt1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,7 +439,7 @@
     <col width="35" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="13" bestFit="1" customWidth="1" min="5" max="5"/>
     <col width="19" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -477,54 +477,58 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.1</v>
+        <v>-0.004</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.08021333333333344</v>
+        <v>-0.07754476190476192</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-0.08021333333333344</v>
+        <v>-0.07754476190476192</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
-        <v>-0.272</v>
+        <v>-0.012</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-0.9769083994709002</v>
+        <v>-0.0007101904761904615</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.104</v>
+        <v>-0.008</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.08071523809523817</v>
+        <v>-0.07820833333333334</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-0.08071523809523817</v>
+        <v>-0.07761395238095239</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
+        <v>-0.0005943809523809435</v>
+      </c>
+      <c r="E3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="n">
+        <v>-0.272</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>-0.9769083994709001</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.108</v>
+        <v>-0.012</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-0.08102095238095247</v>
+        <v>-0.07839333333333334</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-0.08102095238095247</v>
+        <v>-0.07768314285714288</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0</v>
+        <v>-0.0007101904761904615</v>
       </c>
       <c r="E4" s="2" t="n"/>
       <c r="F4" s="2" t="n"/>
@@ -532,16 +536,16 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>-0.112</v>
+        <v>-0.016</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-0.08124714285714291</v>
+        <v>-0.07829809523809531</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-0.08124714285714291</v>
+        <v>-0.07775233333333335</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0</v>
+        <v>-0.0005457619047619516</v>
       </c>
       <c r="E5" s="2" t="n"/>
       <c r="F5" s="2" t="n"/>
@@ -549,16 +553,16 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>-0.116</v>
+        <v>-0.02</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-0.08160095238095244</v>
+        <v>-0.07818190476190481</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-0.08160095238095244</v>
+        <v>-0.07782152380952384</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0</v>
+        <v>-0.0003603809523809731</v>
       </c>
       <c r="E6" s="2" t="n"/>
       <c r="F6" s="2" t="n"/>
@@ -566,16 +570,16 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>-0.12</v>
+        <v>-0.024</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-0.08194523809523815</v>
+        <v>-0.07814809523809529</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-0.08194523809523813</v>
+        <v>-0.07789071428571433</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-2.775557561562891e-17</v>
+        <v>-0.0002573809523809673</v>
       </c>
       <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="n"/>
@@ -583,16 +587,16 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>-0.124</v>
+        <v>-0.028</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-0.08247666666666673</v>
+        <v>-0.07823476190476196</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-0.08241901455026458</v>
+        <v>-0.0779599047619048</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-5.765211640214318e-05</v>
+        <v>-0.00027485714285716</v>
       </c>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
@@ -600,16 +604,16 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>-0.128</v>
+        <v>-0.032</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-0.08305666666666672</v>
+        <v>-0.07826190476190482</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-0.08289279100529104</v>
+        <v>-0.07802909523809529</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.0001638756613756842</v>
+        <v>-0.0002328095238095379</v>
       </c>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
@@ -617,16 +621,16 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>-0.132</v>
+        <v>-0.036</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-0.08372666666666671</v>
+        <v>-0.07821333333333338</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-0.08336656746031749</v>
+        <v>-0.07809828571428576</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.0003600992063492181</v>
+        <v>-0.0001150476190476257</v>
       </c>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -634,16 +638,16 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>-0.136</v>
+        <v>-0.04</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-0.08450190476190481</v>
+        <v>-0.07822523809523815</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-0.08384034391534395</v>
+        <v>-0.07816747619047625</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.0006615608465608547</v>
+        <v>-5.776190476190768e-05</v>
       </c>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
@@ -651,16 +655,16 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>-0.14</v>
+        <v>-0.044</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-0.0855785714285715</v>
+        <v>-0.07823666666666673</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-0.08431412037037041</v>
+        <v>-0.07823666666666673</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.001264451058201096</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
@@ -668,16 +672,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>-0.144</v>
+        <v>-0.048</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-0.08683666666666673</v>
+        <v>-0.07833809523809529</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-0.08478789682539686</v>
+        <v>-0.07833809523809529</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.002048769841269865</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -685,16 +689,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>-0.148</v>
+        <v>-0.052</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-0.08843904761904768</v>
+        <v>-0.07847904761904767</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-0.08526167328042331</v>
+        <v>-0.07847904761904767</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.003177374338624375</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -702,16 +706,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>-0.152</v>
+        <v>-0.056</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-0.09034571428571433</v>
+        <v>-0.07862190476190481</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-0.08573544973544978</v>
+        <v>-0.07862190476190481</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.004610264550264559</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -719,16 +723,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>-0.156</v>
+        <v>-0.06</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-0.0926576190476191</v>
+        <v>-0.07871666666666671</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-0.08620922619047622</v>
+        <v>-0.07871666666666671</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.006448392857142882</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -736,16 +740,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>-0.16</v>
+        <v>-0.064</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-0.09567904761904769</v>
+        <v>-0.07882380952380957</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-0.08668300264550267</v>
+        <v>-0.07882380952380957</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.008996044973545017</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -753,16 +757,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>-0.164</v>
+        <v>-0.068</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-0.09925142857142863</v>
+        <v>-0.07901380952380957</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-0.08715677910052913</v>
+        <v>-0.07901380952380957</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.0120946494708995</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -770,16 +774,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>-0.168</v>
+        <v>-0.07199999999999999</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-0.1038885714285715</v>
+        <v>-0.0792128571428572</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-0.08763055555555559</v>
+        <v>-0.0792128571428572</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.01625801587301591</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -787,16 +791,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>-0.172</v>
+        <v>-0.076</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-0.1095838095238096</v>
+        <v>-0.07939714285714292</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-0.08810433201058204</v>
+        <v>-0.07939714285714292</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.02147947751322755</v>
+        <v>0</v>
       </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
@@ -804,16 +808,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>-0.176</v>
+        <v>-0.08</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-0.1167333333333334</v>
+        <v>-0.07955619047619053</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-0.0885781084656085</v>
+        <v>-0.07955619047619053</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.02815522486772491</v>
+        <v>0</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -821,16 +825,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>-0.18</v>
+        <v>-0.08400000000000001</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-0.1254809523809525</v>
+        <v>-0.07969190476190482</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-0.08905188492063495</v>
+        <v>-0.07969190476190482</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.03642906746031752</v>
+        <v>0</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
@@ -838,16 +842,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>-0.184</v>
+        <v>-0.08799999999999999</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-0.1364380952380953</v>
+        <v>-0.07987047619047624</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-0.08952566137566141</v>
+        <v>-0.07987047619047624</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.04691243386243392</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -855,16 +859,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>-0.188</v>
+        <v>-0.092</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-0.1499238095238096</v>
+        <v>-0.08006857142857149</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-0.08999943783068787</v>
+        <v>-0.08006857142857149</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.05992437169312176</v>
+        <v>0</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -872,16 +876,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>-0.192</v>
+        <v>-0.096</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-0.1667380952380954</v>
+        <v>-0.08018904761904767</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-0.09047321428571431</v>
+        <v>-0.08018904761904767</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.07626488095238104</v>
+        <v>0</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -889,16 +893,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>-0.196</v>
+        <v>-0.1</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-0.1870952380952382</v>
+        <v>-0.08039761904761911</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-0.09094699074074078</v>
+        <v>-0.08039761904761911</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.09614824735449742</v>
+        <v>0</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -906,16 +910,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>-0.2</v>
+        <v>-0.104</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-0.2116047619047621</v>
+        <v>-0.08063000000000006</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-0.09142076719576722</v>
+        <v>-0.08063000000000006</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.1201839947089949</v>
+        <v>0</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -923,16 +927,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>-0.204</v>
+        <v>-0.108</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-0.2407000000000001</v>
+        <v>-0.08096095238095244</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-0.09189454365079368</v>
+        <v>-0.08096095238095244</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.1488054563492064</v>
+        <v>0</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -940,16 +944,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>-0.208</v>
+        <v>-0.112</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-0.2750142857142859</v>
+        <v>-0.08124714285714291</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-0.09236832010582013</v>
+        <v>-0.08124714285714291</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.1826459656084658</v>
+        <v>0</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -957,16 +961,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>-0.212</v>
+        <v>-0.116</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-0.3149761904761907</v>
+        <v>-0.08160095238095244</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-0.09284209656084659</v>
+        <v>-0.08160095238095244</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.2221340939153441</v>
+        <v>0</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -974,16 +978,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>-0.216</v>
+        <v>-0.12</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-0.3607761904761907</v>
+        <v>-0.08194523809523815</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-0.09331587301587305</v>
+        <v>-0.08194523809523815</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.2674603174603176</v>
+        <v>0</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -991,16 +995,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>-0.22</v>
+        <v>-0.124</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-0.412366666666667</v>
+        <v>-0.08247666666666673</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-0.0937896494708995</v>
+        <v>-0.08241901455026461</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.3185770171957675</v>
+        <v>-5.765211640211543e-05</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1008,16 +1012,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.128</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-0.4693285714285718</v>
+        <v>-0.08305666666666672</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-0.09426342592592596</v>
+        <v>-0.08289279100529107</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.3750651455026458</v>
+        <v>-0.0001638756613756565</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1025,16 +1029,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>-0.228</v>
+        <v>-0.132</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-0.5310904761904766</v>
+        <v>-0.08372666666666673</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-0.09473720238095241</v>
+        <v>-0.08336656746031752</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.4363532738095242</v>
+        <v>-0.0003600992063492042</v>
       </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
@@ -1042,16 +1046,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>-0.232</v>
+        <v>-0.136</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-0.5965619047619052</v>
+        <v>-0.08450190476190482</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-0.09521097883597887</v>
+        <v>-0.08384034391534398</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.5013509259259263</v>
+        <v>-0.0006615608465608408</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1059,16 +1063,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>-0.236</v>
+        <v>-0.14</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-0.6643095238095242</v>
+        <v>-0.08557857142857149</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-0.09568475529100531</v>
+        <v>-0.08431412037037044</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-0.568624768518519</v>
+        <v>-0.001264451058201055</v>
       </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
@@ -1076,16 +1080,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>-0.24</v>
+        <v>-0.144</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-0.7325952380952387</v>
+        <v>-0.08683666666666673</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-0.09615853174603178</v>
+        <v>-0.08478789682539689</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-0.6364367063492069</v>
+        <v>-0.002048769841269837</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1093,16 +1097,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>-0.244</v>
+        <v>-0.148</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-0.7997238095238099</v>
+        <v>-0.08843904761904767</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-0.09663230820105823</v>
+        <v>-0.08526167328042335</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-0.7030915013227517</v>
+        <v>-0.00317737433862432</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1110,16 +1114,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>-0.248</v>
+        <v>-0.152</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-0.8632904761904767</v>
+        <v>-0.09034571428571435</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-0.09710608465608468</v>
+        <v>-0.0857354497354498</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-0.766184391534392</v>
+        <v>-0.004610264550264545</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1127,16 +1131,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>-0.252</v>
+        <v>-0.156</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-0.9218095238095244</v>
+        <v>-0.0926576190476191</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-0.09757986111111114</v>
+        <v>-0.08620922619047626</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-0.8242296626984132</v>
+        <v>-0.00644839285714284</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1144,16 +1148,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>-0.256</v>
+        <v>-0.16</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-0.9729666666666673</v>
+        <v>-0.09567904761904769</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-0.09805363756613759</v>
+        <v>-0.08668300264550272</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-0.8749130291005297</v>
+        <v>-0.008996044973544975</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1161,16 +1165,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>-0.26</v>
+        <v>-0.164</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>-1.015204761904763</v>
+        <v>-0.09925142857142863</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-0.09852741402116405</v>
+        <v>-0.08715677910052917</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-0.9166773478835986</v>
+        <v>-0.01209464947089946</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1178,16 +1182,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>-0.264</v>
+        <v>-0.168</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>-1.047028571428572</v>
+        <v>-0.1038885714285715</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-0.09900119047619051</v>
+        <v>-0.08763055555555563</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-0.9480273809523816</v>
+        <v>-0.01625801587301587</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1195,16 +1199,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>-0.268</v>
+        <v>-0.172</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-1.067800000000001</v>
+        <v>-0.1095838095238096</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-0.09947496693121696</v>
+        <v>-0.08810433201058208</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>-0.9683250330687838</v>
+        <v>-0.02147947751322751</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1212,16 +1216,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>-0.272</v>
+        <v>-0.176</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-1.076857142857144</v>
+        <v>-0.1167333333333334</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-0.09994874338624342</v>
+        <v>-0.08857810846560854</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>-0.9769083994709002</v>
+        <v>-0.02815522486772487</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1229,16 +1233,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>-0.276</v>
+        <v>-0.18</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-1.074761904761905</v>
+        <v>-0.1254809523809525</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-0.1004225198412699</v>
+        <v>-0.08905188492063498</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>-0.9743393849206357</v>
+        <v>-0.03642906746031749</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1246,16 +1250,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>-0.28</v>
+        <v>-0.184</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-1.061828571428572</v>
+        <v>-0.1364380952380953</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-0.1008962962962963</v>
+        <v>-0.08952566137566145</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>-0.9609322751322759</v>
+        <v>-0.04691243386243388</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1263,16 +1267,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>-0.284</v>
+        <v>-0.188</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-1.039138095238096</v>
+        <v>-0.1499238095238096</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-0.1013700727513228</v>
+        <v>-0.0899994378306879</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>-0.9377680224867732</v>
+        <v>-0.05992437169312173</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1280,16 +1284,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>-0.288</v>
+        <v>-0.192</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-1.007838095238096</v>
+        <v>-0.1667380952380954</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-0.1018438492063492</v>
+        <v>-0.09047321428571437</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>-0.9059942460317464</v>
+        <v>-0.07626488095238099</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1297,16 +1301,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>-0.292</v>
+        <v>-0.196</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-0.96932380952381</v>
+        <v>-0.1870952380952382</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-0.1023176256613757</v>
+        <v>-0.09094699074074081</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-0.8670061838624343</v>
+        <v>-0.0961482473544974</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1314,16 +1318,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>-0.296</v>
+        <v>-0.2</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-0.9250904761904768</v>
+        <v>-0.2116047619047621</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-0.1027914021164021</v>
+        <v>-0.09142076719576728</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>-0.8222990740740747</v>
+        <v>-0.1201839947089948</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1331,16 +1335,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>-0.3</v>
+        <v>-0.204</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>-0.876328571428572</v>
+        <v>-0.2407000000000002</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-0.1032651785714286</v>
+        <v>-0.09189454365079372</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>-0.7730633928571434</v>
+        <v>-0.1488054563492064</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1348,16 +1352,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>-0.304</v>
+        <v>-0.208</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>-0.8242000000000005</v>
+        <v>-0.2750142857142859</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-0.1037389550264551</v>
+        <v>-0.09236832010582018</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-0.7204610449735455</v>
+        <v>-0.1826459656084657</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1365,16 +1369,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>-0.308</v>
+        <v>-0.212</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>-0.76962380952381</v>
+        <v>-0.3149761904761906</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-0.1042127314814815</v>
+        <v>-0.09284209656084663</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-0.6654110780423286</v>
+        <v>-0.222134093915344</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1382,16 +1386,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>-0.312</v>
+        <v>-0.216</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-0.7135142857142862</v>
+        <v>-0.3607761904761907</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-0.104686507936508</v>
+        <v>-0.09331587301587309</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>-0.6088277777777782</v>
+        <v>-0.2674603174603176</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1399,16 +1403,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>-0.316</v>
+        <v>-0.22</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>-0.656514285714286</v>
+        <v>-0.412366666666667</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-0.1051602843915344</v>
+        <v>-0.09378964947089954</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>-0.5513540013227516</v>
+        <v>-0.3185770171957675</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1416,16 +1420,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>-0.32</v>
+        <v>-0.224</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>-0.5994809523809528</v>
+        <v>-0.4693285714285718</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-0.1056340608465609</v>
+        <v>-0.094263425925926</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>-0.4938468915343919</v>
+        <v>-0.3750651455026457</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1433,16 +1437,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>-0.324</v>
+        <v>-0.228</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-0.542971428571429</v>
+        <v>-0.5310904761904766</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-0.1061078373015873</v>
+        <v>-0.09473720238095246</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>-0.4368635912698416</v>
+        <v>-0.4363532738095241</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1450,16 +1454,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>-0.328</v>
+        <v>-0.232</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>-0.487766666666667</v>
+        <v>-0.5965619047619053</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-0.1065816137566138</v>
+        <v>-0.09521097883597891</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>-0.3811850529100532</v>
+        <v>-0.5013509259259263</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1467,16 +1471,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>-0.332</v>
+        <v>-0.236</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>-0.4345761904761908</v>
+        <v>-0.6643095238095243</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-0.1070553902116402</v>
+        <v>-0.09568475529100537</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>-0.3275208002645505</v>
+        <v>-0.568624768518519</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1484,16 +1488,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>-0.336</v>
+        <v>-0.24</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-0.3845952380952383</v>
+        <v>-0.7325952380952386</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-0.1075291666666667</v>
+        <v>-0.09615853174603183</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>-0.2770660714285716</v>
+        <v>-0.6364367063492068</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1501,16 +1505,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>-0.34</v>
+        <v>-0.244</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>-0.3386190476190478</v>
+        <v>-0.7997238095238101</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-0.1080029431216931</v>
+        <v>-0.09663230820105828</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>-0.2306161044973547</v>
+        <v>-0.7030915013227518</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1518,16 +1522,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>-0.344</v>
+        <v>-0.248</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>-0.2974285714285716</v>
+        <v>-0.8632904761904767</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-0.1084767195767196</v>
+        <v>-0.09710608465608474</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>-0.188951851851852</v>
+        <v>-0.766184391534392</v>
       </c>
       <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
@@ -1535,16 +1539,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>-0.348</v>
+        <v>-0.252</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-0.2611238095238096</v>
+        <v>-0.9218095238095244</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-0.1089504960317461</v>
+        <v>-0.09757986111111119</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>-0.1521733134920636</v>
+        <v>-0.8242296626984132</v>
       </c>
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
@@ -1552,16 +1556,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>-0.352</v>
+        <v>-0.256</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>-0.2300523809523811</v>
+        <v>-0.9729666666666673</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-0.1094242724867725</v>
+        <v>-0.09805363756613765</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>-0.1206281084656086</v>
+        <v>-0.8749130291005297</v>
       </c>
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
@@ -1569,16 +1573,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>-0.356</v>
+        <v>-0.26</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-0.203804761904762</v>
+        <v>-1.015204761904763</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-0.109898048941799</v>
+        <v>-0.09852741402116411</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>-0.09390671296296305</v>
+        <v>-0.9166773478835986</v>
       </c>
       <c r="E66" s="2" t="n"/>
       <c r="F66" s="2" t="n"/>
@@ -1586,16 +1590,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>-0.36</v>
+        <v>-0.264</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-0.1823428571428573</v>
+        <v>-1.047028571428572</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-0.1103718253968254</v>
+        <v>-0.09900119047619055</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>-0.07197103174603184</v>
+        <v>-0.9480273809523816</v>
       </c>
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="2" t="n"/>
@@ -1603,16 +1607,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>-0.364</v>
+        <v>-0.268</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-0.1651809523809525</v>
+        <v>-1.067800000000001</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-0.1108456018518519</v>
+        <v>-0.09947496693121702</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>-0.0543353505291006</v>
+        <v>-0.9683250330687837</v>
       </c>
       <c r="E68" s="2" t="n"/>
       <c r="F68" s="2" t="n"/>
@@ -1620,16 +1624,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>-0.368</v>
+        <v>-0.272</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>-0.1516000000000001</v>
+        <v>-1.076857142857144</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-0.1113193783068783</v>
+        <v>-0.09994874338624346</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>-0.04028062169312177</v>
+        <v>-0.9769083994709001</v>
       </c>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
@@ -1637,16 +1641,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>-0.372</v>
+        <v>-0.276</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-0.1409571428571429</v>
+        <v>-1.074761904761906</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-0.1117931547619048</v>
+        <v>-0.1004225198412699</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>-0.02916398809523815</v>
+        <v>-0.9743393849206358</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1654,16 +1658,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>-0.376</v>
+        <v>-0.28</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>-0.1330952380952382</v>
+        <v>-1.061828571428572</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-0.1122669312169312</v>
+        <v>-0.1008962962962964</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>-0.02082830687830692</v>
+        <v>-0.9609322751322759</v>
       </c>
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="2" t="n"/>
@@ -1671,16 +1675,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>-0.38</v>
+        <v>-0.284</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>-0.1271761904761906</v>
+        <v>-1.039138095238096</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-0.1127407076719577</v>
+        <v>-0.1013700727513228</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>-0.01443548280423285</v>
+        <v>-0.9377680224867732</v>
       </c>
       <c r="E72" s="2" t="n"/>
       <c r="F72" s="2" t="n"/>
@@ -1688,16 +1692,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>-0.384</v>
+        <v>-0.288</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>-0.1229190476190477</v>
+        <v>-1.007838095238096</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-0.1132144841269841</v>
+        <v>-0.1018438492063493</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>-0.009704563492063556</v>
+        <v>-0.9059942460317464</v>
       </c>
       <c r="E73" s="2" t="n"/>
       <c r="F73" s="2" t="n"/>
@@ -1705,16 +1709,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>-0.388</v>
+        <v>-0.292</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>-0.1199428571428572</v>
+        <v>-0.9693238095238101</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-0.1136882605820106</v>
+        <v>-0.1023176256613757</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>-0.00625459656084662</v>
+        <v>-0.8670061838624344</v>
       </c>
       <c r="E74" s="2" t="n"/>
       <c r="F74" s="2" t="n"/>
@@ -1722,16 +1726,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>-0.392</v>
+        <v>-0.296</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-0.1178190476190477</v>
+        <v>-0.9250904761904768</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-0.1141620370370371</v>
+        <v>-0.1027914021164022</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>-0.003657010582010622</v>
+        <v>-0.8222990740740745</v>
       </c>
       <c r="E75" s="2" t="n"/>
       <c r="F75" s="2" t="n"/>
@@ -1739,16 +1743,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>-0.396</v>
+        <v>-0.3</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-0.1164619047619048</v>
+        <v>-0.876328571428572</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-0.1146358134920635</v>
+        <v>-0.1032651785714287</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>-0.001826091269841332</v>
+        <v>-0.7730633928571433</v>
       </c>
       <c r="E76" s="2" t="n"/>
       <c r="F76" s="2" t="n"/>
@@ -1756,16 +1760,16 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>-0.4</v>
+        <v>-0.304</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>-0.1158857142857144</v>
+        <v>-0.8242000000000006</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-0.11510958994709</v>
+        <v>-0.1037389550264551</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>-0.0007761243386243954</v>
+        <v>-0.7204610449735455</v>
       </c>
       <c r="E77" s="2" t="n"/>
       <c r="F77" s="2" t="n"/>
@@ -1773,16 +1777,16 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>-0.404</v>
+        <v>-0.308</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>-0.1157809523809525</v>
+        <v>-0.7696238095238102</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>-0.1155833664021164</v>
+        <v>-0.1042127314814816</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>-0.0001975859788360262</v>
+        <v>-0.6654110780423286</v>
       </c>
       <c r="E78" s="2" t="n"/>
       <c r="F78" s="2" t="n"/>
@@ -1790,16 +1794,16 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>-0.408</v>
+        <v>-0.312</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>-0.1160571428571429</v>
+        <v>-0.7135142857142862</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>-0.1160571428571429</v>
+        <v>-0.104686507936508</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>-4.163336342344337e-17</v>
+        <v>-0.6088277777777782</v>
       </c>
       <c r="E79" s="2" t="n"/>
       <c r="F79" s="2" t="n"/>
@@ -1807,16 +1811,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>-0.412</v>
+        <v>-0.316</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>-0.1166571428571429</v>
+        <v>-0.656514285714286</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>-0.1166571428571429</v>
+        <v>-0.1051602843915345</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>0</v>
+        <v>-0.5513540013227516</v>
       </c>
       <c r="E80" s="2" t="n"/>
       <c r="F80" s="2" t="n"/>
@@ -1824,16 +1828,16 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>-0.416</v>
+        <v>-0.32</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>-0.1174666666666667</v>
+        <v>-0.5994809523809528</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>-0.1174666666666667</v>
+        <v>-0.1056340608465609</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>0</v>
+        <v>-0.4938468915343919</v>
       </c>
       <c r="E81" s="2" t="n"/>
       <c r="F81" s="2" t="n"/>
@@ -1841,16 +1845,16 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>-0.42</v>
+        <v>-0.324</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>-0.118404761904762</v>
+        <v>-0.542971428571429</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>-0.118404761904762</v>
+        <v>-0.1061078373015874</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>0</v>
+        <v>-0.4368635912698416</v>
       </c>
       <c r="E82" s="2" t="n"/>
       <c r="F82" s="2" t="n"/>
@@ -1858,16 +1862,16 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>-0.424</v>
+        <v>-0.328</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>-0.1195000000000001</v>
+        <v>-0.487766666666667</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>-0.1195000000000001</v>
+        <v>-0.1065816137566138</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>0</v>
+        <v>-0.3811850529100531</v>
       </c>
       <c r="E83" s="2" t="n"/>
       <c r="F83" s="2" t="n"/>
@@ -1875,16 +1879,16 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>-0.428</v>
+        <v>-0.332</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>-0.120804761904762</v>
+        <v>-0.4345761904761908</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>-0.120804761904762</v>
+        <v>-0.1070553902116403</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>0</v>
+        <v>-0.3275208002645505</v>
       </c>
       <c r="E84" s="2" t="n"/>
       <c r="F84" s="2" t="n"/>
@@ -1892,16 +1896,16 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>-0.432</v>
+        <v>-0.336</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>-0.1222285714285715</v>
+        <v>-0.3845952380952383</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>-0.1222285714285715</v>
+        <v>-0.1075291666666668</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>0</v>
+        <v>-0.2770660714285715</v>
       </c>
       <c r="E85" s="2" t="n"/>
       <c r="F85" s="2" t="n"/>
@@ -1909,16 +1913,16 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>-0.436</v>
+        <v>-0.34</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>-0.1238904761904763</v>
+        <v>-0.3386190476190478</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>-0.1238904761904763</v>
+        <v>-0.1080029431216932</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>0</v>
+        <v>-0.2306161044973546</v>
       </c>
       <c r="E86" s="2" t="n"/>
       <c r="F86" s="2" t="n"/>
@@ -1926,16 +1930,16 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>-0.44</v>
+        <v>-0.344</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>-0.1254666666666668</v>
+        <v>-0.2974285714285716</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>-0.1254666666666668</v>
+        <v>-0.1084767195767197</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>0</v>
+        <v>-0.1889518518518519</v>
       </c>
       <c r="E87" s="2" t="n"/>
       <c r="F87" s="2" t="n"/>
@@ -1943,16 +1947,16 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>-0.444</v>
+        <v>-0.348</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>-0.1271238095238096</v>
+        <v>-0.2611238095238096</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>-0.1271238095238096</v>
+        <v>-0.1089504960317461</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>0</v>
+        <v>-0.1521733134920635</v>
       </c>
       <c r="E88" s="2" t="n"/>
       <c r="F88" s="2" t="n"/>
@@ -1960,16 +1964,16 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>-0.448</v>
+        <v>-0.352</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>-0.1288190476190477</v>
+        <v>-0.2300523809523811</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>-0.1288190476190477</v>
+        <v>-0.1094242724867726</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>0</v>
+        <v>-0.1206281084656085</v>
       </c>
       <c r="E89" s="2" t="n"/>
       <c r="F89" s="2" t="n"/>
@@ -1977,16 +1981,16 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>-0.452</v>
+        <v>-0.356</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>-0.1306142857142858</v>
+        <v>-0.203804761904762</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>-0.1306142857142858</v>
+        <v>-0.109898048941799</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>0</v>
+        <v>-0.09390671296296302</v>
       </c>
       <c r="E90" s="2" t="n"/>
       <c r="F90" s="2" t="n"/>
@@ -1994,16 +1998,16 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>-0.456</v>
+        <v>-0.36</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>-0.1325285714285715</v>
+        <v>-0.1823428571428573</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>-0.1325285714285715</v>
+        <v>-0.1103718253968255</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>0</v>
+        <v>-0.07197103174603177</v>
       </c>
       <c r="E91" s="2" t="n"/>
       <c r="F91" s="2" t="n"/>
@@ -2011,16 +2015,16 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>-0.46</v>
+        <v>-0.364</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>-0.1346571428571429</v>
+        <v>-0.1651809523809525</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>-0.1346571428571429</v>
+        <v>-0.1108456018518519</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>0</v>
+        <v>-0.05433535052910055</v>
       </c>
       <c r="E92" s="2" t="n"/>
       <c r="F92" s="2" t="n"/>
@@ -2028,16 +2032,16 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>-0.464</v>
+        <v>-0.368</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>-0.1368380952380953</v>
+        <v>-0.1516000000000001</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>-0.1368380952380953</v>
+        <v>-0.1113193783068784</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>0</v>
+        <v>-0.0402806216931217</v>
       </c>
       <c r="E93" s="2" t="n"/>
       <c r="F93" s="2" t="n"/>
@@ -2045,16 +2049,16 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>-0.468</v>
+        <v>-0.372</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>-0.1392571428571429</v>
+        <v>-0.1409571428571429</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>-0.1392571428571429</v>
+        <v>-0.1117931547619049</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>0</v>
+        <v>-0.0291639880952381</v>
       </c>
       <c r="E94" s="2" t="n"/>
       <c r="F94" s="2" t="n"/>
@@ -2062,16 +2066,16 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>-0.472</v>
+        <v>-0.376</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>-0.1415714285714286</v>
+        <v>-0.1330952380952382</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>-0.1415714285714286</v>
+        <v>-0.1122669312169313</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>0</v>
+        <v>-0.02082830687830685</v>
       </c>
       <c r="E95" s="2" t="n"/>
       <c r="F95" s="2" t="n"/>
@@ -2079,16 +2083,16 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>-0.476</v>
+        <v>-0.38</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>-0.144204761904762</v>
+        <v>-0.1271761904761906</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>-0.144204761904762</v>
+        <v>-0.1127407076719578</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>0</v>
+        <v>-0.01443548280423279</v>
       </c>
       <c r="E96" s="2" t="n"/>
       <c r="F96" s="2" t="n"/>
@@ -2096,16 +2100,16 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>-0.48</v>
+        <v>-0.384</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>-0.1469333333333334</v>
+        <v>-0.1229190476190477</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>-0.1469333333333334</v>
+        <v>-0.1132144841269842</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>0</v>
+        <v>-0.009704563492063487</v>
       </c>
       <c r="E97" s="2" t="n"/>
       <c r="F97" s="2" t="n"/>
@@ -2113,16 +2117,16 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>-0.484</v>
+        <v>-0.388</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>-0.1498238095238096</v>
+        <v>-0.1199428571428572</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>-0.1498238095238096</v>
+        <v>-0.1136882605820107</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>0</v>
+        <v>-0.006254596560846565</v>
       </c>
       <c r="E98" s="2" t="n"/>
       <c r="F98" s="2" t="n"/>
@@ -2130,16 +2134,16 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>-0.488</v>
+        <v>-0.392</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>-0.1528714285714287</v>
+        <v>-0.1178190476190477</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>-0.1528714285714287</v>
+        <v>-0.1141620370370371</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>0</v>
+        <v>-0.003657010582010553</v>
       </c>
       <c r="E99" s="2" t="n"/>
       <c r="F99" s="2" t="n"/>
@@ -2147,16 +2151,16 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>-0.492</v>
+        <v>-0.396</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>-0.1560357142857144</v>
+        <v>-0.1164619047619048</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>-0.1560357142857144</v>
+        <v>-0.1146358134920636</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>0</v>
+        <v>-0.001826091269841262</v>
       </c>
       <c r="E100" s="2" t="n"/>
       <c r="F100" s="2" t="n"/>
@@ -2164,16 +2168,16 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>-0.496</v>
+        <v>-0.4</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>-0.1592500000000002</v>
+        <v>-0.1158857142857144</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>-0.1592500000000002</v>
+        <v>-0.11510958994709</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>0</v>
+        <v>-0.0007761243386243261</v>
       </c>
       <c r="E101" s="2" t="n"/>
       <c r="F101" s="2" t="n"/>
@@ -2181,20 +2185,428 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>-0.5</v>
+        <v>-0.404</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>-0.162464285714286</v>
+        <v>-0.1157809523809525</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>-0.162464285714286</v>
+        <v>-0.1155833664021165</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>0</v>
+        <v>-0.0001975859788359569</v>
       </c>
       <c r="E102" s="2" t="n"/>
       <c r="F102" s="2" t="n"/>
       <c r="G102" s="2" t="n"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>-0.408</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>-0.1160571428571429</v>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>-0.1160571428571429</v>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" s="2" t="n"/>
+      <c r="F103" s="2" t="n"/>
+      <c r="G103" s="2" t="n"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>-0.412</v>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>-0.1166571428571429</v>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>-0.1166571428571429</v>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" s="2" t="n"/>
+      <c r="F104" s="2" t="n"/>
+      <c r="G104" s="2" t="n"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>-0.416</v>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>-0.1174666666666668</v>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>-0.1174666666666668</v>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" s="2" t="n"/>
+      <c r="F105" s="2" t="n"/>
+      <c r="G105" s="2" t="n"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>-0.118404761904762</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>-0.118404761904762</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" s="2" t="n"/>
+      <c r="F106" s="2" t="n"/>
+      <c r="G106" s="2" t="n"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>-0.424</v>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>-0.1195000000000001</v>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>-0.1195000000000001</v>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" s="2" t="n"/>
+      <c r="F107" s="2" t="n"/>
+      <c r="G107" s="2" t="n"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>-0.428</v>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>-0.120804761904762</v>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>-0.120804761904762</v>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" s="2" t="n"/>
+      <c r="F108" s="2" t="n"/>
+      <c r="G108" s="2" t="n"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>-0.432</v>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>-0.1222285714285715</v>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>-0.1222285714285715</v>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" s="2" t="n"/>
+      <c r="F109" s="2" t="n"/>
+      <c r="G109" s="2" t="n"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>-0.436</v>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>-0.1238904761904763</v>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>-0.1238904761904763</v>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" s="2" t="n"/>
+      <c r="F110" s="2" t="n"/>
+      <c r="G110" s="2" t="n"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>-0.1254666666666668</v>
+      </c>
+      <c r="C111" s="2" t="n">
+        <v>-0.1254666666666668</v>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" s="2" t="n"/>
+      <c r="F111" s="2" t="n"/>
+      <c r="G111" s="2" t="n"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>-0.444</v>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>-0.1271238095238096</v>
+      </c>
+      <c r="C112" s="2" t="n">
+        <v>-0.1271238095238096</v>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" s="2" t="n"/>
+      <c r="F112" s="2" t="n"/>
+      <c r="G112" s="2" t="n"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>-0.448</v>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>-0.1288190476190477</v>
+      </c>
+      <c r="C113" s="2" t="n">
+        <v>-0.1288190476190477</v>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" s="2" t="n"/>
+      <c r="F113" s="2" t="n"/>
+      <c r="G113" s="2" t="n"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>-0.452</v>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>-0.1306142857142858</v>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>-0.1306142857142858</v>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" s="2" t="n"/>
+      <c r="F114" s="2" t="n"/>
+      <c r="G114" s="2" t="n"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>-0.456</v>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>-0.1325285714285715</v>
+      </c>
+      <c r="C115" s="2" t="n">
+        <v>-0.1325285714285715</v>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" s="2" t="n"/>
+      <c r="F115" s="2" t="n"/>
+      <c r="G115" s="2" t="n"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>-0.1346571428571429</v>
+      </c>
+      <c r="C116" s="2" t="n">
+        <v>-0.1346571428571429</v>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" s="2" t="n"/>
+      <c r="F116" s="2" t="n"/>
+      <c r="G116" s="2" t="n"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>-0.464</v>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>-0.1368380952380953</v>
+      </c>
+      <c r="C117" s="2" t="n">
+        <v>-0.1368380952380953</v>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" s="2" t="n"/>
+      <c r="F117" s="2" t="n"/>
+      <c r="G117" s="2" t="n"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>-0.468</v>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>-0.1392571428571429</v>
+      </c>
+      <c r="C118" s="2" t="n">
+        <v>-0.1392571428571429</v>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" s="2" t="n"/>
+      <c r="F118" s="2" t="n"/>
+      <c r="G118" s="2" t="n"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>-0.472</v>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>-0.1415714285714287</v>
+      </c>
+      <c r="C119" s="2" t="n">
+        <v>-0.1415714285714287</v>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" s="2" t="n"/>
+      <c r="F119" s="2" t="n"/>
+      <c r="G119" s="2" t="n"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>-0.476</v>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>-0.144204761904762</v>
+      </c>
+      <c r="C120" s="2" t="n">
+        <v>-0.144204761904762</v>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" s="2" t="n"/>
+      <c r="F120" s="2" t="n"/>
+      <c r="G120" s="2" t="n"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>-0.1469333333333334</v>
+      </c>
+      <c r="C121" s="2" t="n">
+        <v>-0.1469333333333334</v>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" s="2" t="n"/>
+      <c r="F121" s="2" t="n"/>
+      <c r="G121" s="2" t="n"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>-0.484</v>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>-0.1498238095238096</v>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>-0.1498238095238096</v>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" s="2" t="n"/>
+      <c r="F122" s="2" t="n"/>
+      <c r="G122" s="2" t="n"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>-0.488</v>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>-0.1528714285714287</v>
+      </c>
+      <c r="C123" s="2" t="n">
+        <v>-0.1528714285714287</v>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" s="2" t="n"/>
+      <c r="F123" s="2" t="n"/>
+      <c r="G123" s="2" t="n"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>-0.492</v>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>-0.1560357142857144</v>
+      </c>
+      <c r="C124" s="2" t="n">
+        <v>-0.1560357142857144</v>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" s="2" t="n"/>
+      <c r="F124" s="2" t="n"/>
+      <c r="G124" s="2" t="n"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>-0.496</v>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>-0.1592500000000002</v>
+      </c>
+      <c r="C125" s="2" t="n">
+        <v>-0.1592500000000002</v>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" s="2" t="n"/>
+      <c r="F125" s="2" t="n"/>
+      <c r="G125" s="2" t="n"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>-0.1624642857142861</v>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>-0.1624642857142861</v>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" s="2" t="n"/>
+      <c r="F126" s="2" t="n"/>
+      <c r="G126" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2207,7 +2619,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2216,7 +2628,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="19" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2233,10 +2645,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
+        <v>-0.012</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>-0.0007101904761904615</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>-0.272</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>-0.9769083994709002</v>
+      <c r="B3" s="2" t="n">
+        <v>-0.9769083994709001</v>
       </c>
     </row>
   </sheetData>
